--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="0" windowWidth="22460" windowHeight="14800" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="老计划（废弃）" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="151">
   <si>
     <t>Week1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -468,23 +468,10 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">说明
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色字体：当天全部完成；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(生物学)1-3/2-2/5-1/9-3</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>(地质学)1-1、2-1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>(地质学)3-2、4-3</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -579,14 +566,6 @@
   <si>
     <t>复习改错11-2/11-3; 9-3(补漏)</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色字体：当然没完成；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>基础训练-场景2（复习）</t>
@@ -644,27 +623,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单词-生物学单词-听力3篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词-地质学单词-阅读4篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>表达-60个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词-地质学单词-听力4篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词-地质学单词-听力2+阅读2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词-地质学单词-阅读3篇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -678,6 +637,54 @@
   <si>
     <t>基础训练-场景1（复习）</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(地质学)1-1、2-1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单词-生物学单词-听力3篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3、4-1---复习</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1、2-1-----复习</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础训练-场景2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词-生物学-听力3篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词-地质学-阅读4篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词-地质学-听力4篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词-地质学-听力2+阅读2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词-地质学-阅读3篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -687,7 +694,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -783,8 +790,14 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,6 +846,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -843,7 +862,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2836">
+  <cellStyleXfs count="3112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3682,8 +3701,284 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3747,9 +4042,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1759" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3827,14 +4119,38 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1759" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1759" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2836">
+  <cellStyles count="3112">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -5252,6 +5568,144 @@
     <cellStyle name="超链接" xfId="2830" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="2832" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="2834" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2836" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2838" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2840" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2842" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2844" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2846" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2848" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2850" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2852" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2854" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2856" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2858" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2860" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2862" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2864" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2866" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2868" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2870" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2872" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2874" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2876" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2878" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2880" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2882" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2884" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2886" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2888" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2890" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2892" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2894" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2896" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2898" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2900" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2902" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2904" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2906" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2908" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2910" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2912" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2914" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2916" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2918" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2920" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2922" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2924" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2926" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2928" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2930" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2932" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2934" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2936" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2938" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2940" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2942" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2944" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2946" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2948" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2950" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2952" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2954" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2956" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2958" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2960" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2962" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2964" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2966" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2968" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2970" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2972" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2974" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2976" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2978" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2980" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2982" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2984" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2986" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2988" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2990" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2992" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2994" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2996" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="2998" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3000" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3002" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3004" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3006" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3008" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3010" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3012" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3014" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3016" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3018" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3020" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3022" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3024" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3026" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3028" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3030" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3032" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3034" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3036" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3038" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3040" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3042" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3044" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3046" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3048" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3050" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3052" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3054" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3056" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3058" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3060" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3062" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3064" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3066" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3068" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3070" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3072" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3074" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3076" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3078" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3080" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3082" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3084" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3086" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3088" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3090" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3092" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3094" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3096" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3098" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3110" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -6668,6 +7122,144 @@
     <cellStyle name="访问过的超链接" xfId="2831" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2833" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2835" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2837" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2839" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2841" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2843" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2845" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2847" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2849" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2851" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2853" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2855" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2857" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2859" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2861" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2863" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2865" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2867" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2869" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2871" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2873" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2875" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2877" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2879" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2881" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2883" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2885" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2887" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2889" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2891" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2893" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2895" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2897" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2899" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2901" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2903" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2905" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2907" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2909" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2911" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2913" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2915" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2917" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2919" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2921" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2923" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2925" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2927" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2929" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2931" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2933" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2935" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2937" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2939" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2941" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2943" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2945" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2947" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2949" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2951" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2953" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2955" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2957" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2959" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2961" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2963" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2965" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2967" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2969" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2971" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2973" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2975" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2977" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2979" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2981" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2983" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2985" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2987" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2989" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2991" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2993" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2995" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2997" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2999" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3001" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3003" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3005" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3007" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3009" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3011" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3013" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3015" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3017" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3019" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3021" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3023" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3025" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3027" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3029" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3031" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3033" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3035" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3037" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3039" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3041" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3043" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3045" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3047" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3049" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3051" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3053" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3055" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3057" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3059" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3061" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3063" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3065" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3067" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3069" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3071" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3073" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3075" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3077" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3079" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3081" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3083" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3085" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3087" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3089" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3091" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3093" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3095" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3097" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3099" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3111" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -7250,7 +7842,7 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="55">
+      <c r="A19" s="56">
         <v>4.1900000000000004</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -7264,7 +7856,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="26" t="s">
         <v>40</v>
       </c>
@@ -7272,7 +7864,7 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="22" t="s">
         <v>33</v>
       </c>
@@ -7284,7 +7876,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="20" t="s">
         <v>41</v>
       </c>
@@ -7308,7 +7900,7 @@
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="55">
+      <c r="A25" s="56">
         <v>4.24</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -7317,7 +7909,7 @@
       <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="19" t="s">
         <v>50</v>
       </c>
@@ -7326,14 +7918,14 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="55"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="55"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="16" t="s">
         <v>57</v>
       </c>
@@ -7347,7 +7939,7 @@
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="55">
+      <c r="A30" s="56">
         <v>4.25</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -7356,21 +7948,21 @@
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="19" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="55"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="16" t="s">
         <v>59</v>
       </c>
@@ -7382,7 +7974,7 @@
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="55">
+      <c r="A35" s="56">
         <v>4.26</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -7391,21 +7983,21 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="19" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="18" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="18" t="s">
         <v>58</v>
       </c>
@@ -7420,7 +8012,7 @@
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="55">
+      <c r="A40" s="56">
         <v>4.2699999999999996</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -7428,25 +8020,25 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="55"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="55"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="55">
+      <c r="A45" s="56">
         <v>4.28</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -7454,19 +8046,19 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="55"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="55"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="55"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="16" t="s">
         <v>56</v>
       </c>
@@ -7496,11 +8088,11 @@
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
@@ -7511,431 +8103,448 @@
     <col min="7" max="7" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
-      <c r="B1" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="56"/>
+    <row r="1" spans="1:7">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
     </row>
-    <row r="2" spans="1:7" ht="17">
-      <c r="B2" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="56"/>
+    <row r="2" spans="1:7">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
     </row>
-    <row r="3" spans="1:7" ht="17">
-      <c r="B3" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="56"/>
+    <row r="3" spans="1:7">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
     </row>
-    <row r="4" spans="1:7" ht="17">
-      <c r="B4" s="39"/>
+    <row r="4" spans="1:7">
+      <c r="B4" s="38"/>
     </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="28"/>
+      <c r="B6" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="32" t="s">
+      <c r="D6" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="36"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="35"/>
     </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="31" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="28">
+        <v>4.17</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="28">
+        <v>4.18</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="28">
+        <v>4.25</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="28">
+        <v>4.26</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="28">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="28"/>
+      <c r="B20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="28"/>
+      <c r="B23" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="28"/>
+      <c r="B24" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="28"/>
+      <c r="B25" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="36"/>
+      <c r="E25" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
     </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="29">
-        <v>4.17</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="38" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="28"/>
+      <c r="B26" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" s="39"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="39"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="C31" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
-      <c r="A10" s="29">
-        <v>4.18</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="42" t="s">
+    <row r="32" spans="1:7">
+      <c r="C32" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="D33" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="D34" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
-      <c r="A11" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
-      <c r="A12" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
-      <c r="A14" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
-      <c r="A15" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
-      <c r="A16" s="29">
-        <v>4.25</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1">
-      <c r="A17" s="29">
-        <v>4.26</v>
-      </c>
-      <c r="B17" s="28" t="s">
+      <c r="B37" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1">
-      <c r="A18" s="29">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1">
-      <c r="A19" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1">
-      <c r="A21" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1">
-      <c r="A22" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="1:7" ht="20" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="1:7" ht="20" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="1:7" ht="20" customHeight="1">
-      <c r="C27" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20" customHeight="1">
-      <c r="A28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="20" customHeight="1">
-      <c r="D29" s="40"/>
-    </row>
-    <row r="30" spans="1:7" ht="20" customHeight="1">
-      <c r="A30" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="40"/>
-    </row>
-    <row r="31" spans="1:7" ht="20" customHeight="1">
-      <c r="A31" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="20" customHeight="1">
-      <c r="D32" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
-      <c r="D33" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1">
-      <c r="D34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1">
-      <c r="A37" t="s">
-        <v>136</v>
-      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4140" yWindow="2720" windowWidth="24700" windowHeight="15360" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="老计划（废弃）" sheetId="1" r:id="rId1"/>
     <sheet name="新计划" sheetId="3" r:id="rId2"/>
-    <sheet name="记录" sheetId="4" r:id="rId3"/>
+    <sheet name="学科分类(听力+阅读)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="281">
   <si>
     <t>Week1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -372,14 +372,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>基础训练-场景3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景3（复习）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>(地质学)8-2</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -444,30 +436,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>基础训练-场景4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景4（复习）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景5（复习）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景6（复习）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>(生物学)1-3/2-2/5-1/9-3</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -566,10 +534,6 @@
   <si>
     <t>复习改错11-2/11-3; 9-3(补漏)</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景2（复习）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>(环境生态)9-3（后已补上）</t>
@@ -619,22 +583,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单词-生物学单词-听力4篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表达-60个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(生物学)5~7篇-精听复习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(生物学)1~4篇-精听复习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>基础训练-场景1（复习）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -651,39 +599,521 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1.单词-生物学单词-听力3篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3-3、4-1---复习</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1-1、2-1-----复习</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>基础训练-场景2</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>单词-生物学-听力3篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词-地质学-阅读4篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词-地质学-听力4篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词-地质学-听力2+阅读2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词-地质学-阅读3篇</t>
+    <t>听力（2/d）</t>
+  </si>
+  <si>
+    <t>阅读(1/d)</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>篇数</t>
+  </si>
+  <si>
+    <t>学科</t>
+  </si>
+  <si>
+    <t>TPO1-10</t>
+  </si>
+  <si>
+    <t>一、</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>生态类</t>
+  </si>
+  <si>
+    <t>7+4篇</t>
+  </si>
+  <si>
+    <t>生物学</t>
+  </si>
+  <si>
+    <t>1-6土拨鼠，</t>
+  </si>
+  <si>
+    <t>2-3马尼拉麻，</t>
+  </si>
+  <si>
+    <t>4-2替代行为，</t>
+  </si>
+  <si>
+    <t>6-3夜冠橡树，</t>
+  </si>
+  <si>
+    <t>7-3蝙蝠，</t>
+  </si>
+  <si>
+    <t>8-2栖息地选择，</t>
+  </si>
+  <si>
+    <t>10-2鲸类进化，</t>
+  </si>
+  <si>
+    <t>OG游泳机器，</t>
+  </si>
+  <si>
+    <t>OG东非食草动物的进食习惯，</t>
+  </si>
+  <si>
+    <t>Online：机会主义者和竞争者，</t>
+  </si>
+  <si>
+    <t>1-3高山林木线，</t>
+  </si>
+  <si>
+    <r>
+      <t>2-2鲸鱼起源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t>5-1矿物质和植物，</t>
+  </si>
+  <si>
+    <t>9-3植物扎根夏威夷</t>
+  </si>
+  <si>
+    <t>3+2篇</t>
+  </si>
+  <si>
+    <t>环境生态学</t>
+  </si>
+  <si>
+    <t>3-2蜂鸟，</t>
+  </si>
+  <si>
+    <t>9-3苔原灌木，</t>
+  </si>
+  <si>
+    <t>10-5磷循环，</t>
+  </si>
+  <si>
+    <t>3-3生态系统长期稳定性，</t>
+  </si>
+  <si>
+    <t>4-1驯鹿数量，</t>
+  </si>
+  <si>
+    <t>6+8篇</t>
+  </si>
+  <si>
+    <t>地质学</t>
+  </si>
+  <si>
+    <t>1-3ULD，</t>
+  </si>
+  <si>
+    <t>4-5移动石头，</t>
+  </si>
+  <si>
+    <t>5-5光谱学，</t>
+  </si>
+  <si>
+    <t>6-6撒哈拉气候改变，</t>
+  </si>
+  <si>
+    <t>7-6冰川活动，</t>
+  </si>
+  <si>
+    <t>9-5沙漠湖，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+  </si>
+  <si>
+    <t>OG地质学和地形，</t>
+  </si>
+  <si>
+    <t>OG绿色冰山，</t>
+  </si>
+  <si>
+    <t>Model：陨石冲击力和恐龙灭绝，</t>
+  </si>
+  <si>
+    <t>1-1地下水，</t>
+  </si>
+  <si>
+    <t>2-1沙漠形成，</t>
+  </si>
+  <si>
+    <t>3-2蓄水层殆尽，</t>
+  </si>
+  <si>
+    <t>4-3石油资源,</t>
+  </si>
+  <si>
+    <t>5-3寒武纪爆发，</t>
+  </si>
+  <si>
+    <t>6-2威廉姆·史密斯的地质学研究成就，</t>
+  </si>
+  <si>
+    <t>7-1地中海地质史，</t>
+  </si>
+  <si>
+    <t>8-2白垩纪恐龙灭绝，</t>
+  </si>
+  <si>
+    <t>二、</t>
+  </si>
+  <si>
+    <t>艺术类讲座</t>
+  </si>
+  <si>
+    <t>3+0</t>
+  </si>
+  <si>
+    <t>艺术家</t>
+  </si>
+  <si>
+    <t>1-2Rose Frantzen画家，</t>
+  </si>
+  <si>
+    <t>3-3Jean Painlevé电影制作者，</t>
+  </si>
+  <si>
+    <t>9-2 Loutherbourg布景师，</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>艺术类</t>
+  </si>
+  <si>
+    <t>4-6政府支持艺术，</t>
+  </si>
+  <si>
+    <t>7-2佳构剧，</t>
+  </si>
+  <si>
+    <t>8-3巴黎女艺术家，</t>
+  </si>
+  <si>
+    <t>2+5</t>
+  </si>
+  <si>
+    <t>古代艺术</t>
+  </si>
+  <si>
+    <t>3-5Chauvet岩画，</t>
+  </si>
+  <si>
+    <t>18-3罗马复制希腊雕塑，</t>
+  </si>
+  <si>
+    <t>OG应用艺术和纯艺术，</t>
+  </si>
+  <si>
+    <t>OGLoie Fuller，</t>
+  </si>
+  <si>
+    <t>OG岩画，</t>
+  </si>
+  <si>
+    <t>1-2戏剧起源，</t>
+  </si>
+  <si>
+    <t>2-3早期电影，</t>
+  </si>
+  <si>
+    <r>
+      <t>3-1建筑学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t>4-2欧洲岩画，</t>
+  </si>
+  <si>
+    <t>10-1中国瓷器，</t>
+  </si>
+  <si>
+    <t>10篇</t>
+  </si>
+  <si>
+    <t>文学</t>
+  </si>
+  <si>
+    <t>语言学</t>
+  </si>
+  <si>
+    <t>哲学</t>
+  </si>
+  <si>
+    <t>2-5亚里士多德，</t>
+  </si>
+  <si>
+    <t>4-3艾默生，</t>
+  </si>
+  <si>
+    <t>5-6民间故事VS童话，</t>
+  </si>
+  <si>
+    <t>6-5人物速写，</t>
+  </si>
+  <si>
+    <t>文化历史</t>
+  </si>
+  <si>
+    <t>5篇</t>
+  </si>
+  <si>
+    <t>历史类</t>
+  </si>
+  <si>
+    <t>7-5Iroquois人和白桦树，</t>
+  </si>
+  <si>
+    <t>8-5视觉矫正，</t>
+  </si>
+  <si>
+    <t>10-3美洲农作物，</t>
+  </si>
+  <si>
+    <t>9篇</t>
+  </si>
+  <si>
+    <t>考古学</t>
+  </si>
+  <si>
+    <t>人类学</t>
+  </si>
+  <si>
+    <t>1-5Çatalhöyük遗址，</t>
+  </si>
+  <si>
+    <t>"5-2太平洋岛民起源，</t>
+  </si>
+  <si>
+    <t>7-3农业，铁器和班图人，</t>
+  </si>
+  <si>
+    <t>8-1墨西哥古文化崛起，</t>
+  </si>
+  <si>
+    <t>9-1西北海岸线殖民美洲，"</t>
+  </si>
+  <si>
+    <t>社会学</t>
+  </si>
+  <si>
+    <t>5-2文化基因=生物基因，</t>
+  </si>
+  <si>
+    <t>6篇</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>6-2郁金香繁荣与萧条，</t>
+  </si>
+  <si>
+    <t>古代社会（政治经济）</t>
+  </si>
+  <si>
+    <t>"OG美国十九世纪的政治,</t>
+  </si>
+  <si>
+    <t>7-2古希腊罗马文化，</t>
+  </si>
+  <si>
+    <t>10-3欧洲十七世纪经济增长，"</t>
+  </si>
+  <si>
+    <t>三、</t>
+  </si>
+  <si>
+    <t>天文学+</t>
+  </si>
+  <si>
+    <t>心理学</t>
+  </si>
+  <si>
+    <t>理科讲座</t>
+  </si>
+  <si>
+    <t>科技能源历史类</t>
+  </si>
+  <si>
+    <t>OG手工艺者和工业革命，</t>
+  </si>
+  <si>
+    <r>
+      <t>Online风力发电</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t>6-1工业革命，</t>
+  </si>
+  <si>
+    <t>14篇</t>
+  </si>
+  <si>
+    <t>天文学</t>
+  </si>
+  <si>
+    <t>2-6波德定律+小行星带，</t>
+  </si>
+  <si>
+    <t>3-6光谱学测元素，</t>
+  </si>
+  <si>
+    <t>5-3登陆月球，</t>
+  </si>
+  <si>
+    <t>8-3火星流水，</t>
+  </si>
+  <si>
+    <t>物理/化学/工科</t>
+  </si>
+  <si>
+    <t>2-2行为学研究，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-6忘记儿童期事件，                  </t>
+  </si>
+  <si>
+    <t>OG侵略行为，</t>
+  </si>
+  <si>
+    <t>OG情感行为，</t>
+  </si>
+  <si>
+    <t>6-3婴儿失忆现象，</t>
+  </si>
+  <si>
+    <t>(生物学)1~4篇-查漏补缺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(生物学)5~7篇查漏补缺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学-听力3篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地质学-阅读4篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地质学-听力4篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地质学-听力2+阅读2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地质学-阅读3篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础训练-场景2/3（复习）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础训练-场景4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础训练-场景5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础训练-场景4/5（复习）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础训练-场景3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础训练-场景6</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础训练-场景6（复习）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1、2-1---复习</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词：生物学-听力3篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短语：60个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短语：60个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词：生物学单词-听力4篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(生物学)1~4篇-精听复习（一半）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(生物学)5~7篇-精听复习（一半）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单词：生态-阅读2篇
+2.短语：60个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +1124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -792,8 +1222,69 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="9" tint="0.59999389629810485"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFE26B0A"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -824,36 +1315,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC5D9F1"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF008000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -861,8 +1352,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3112">
+  <cellStyleXfs count="3372">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3977,8 +4616,268 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4089,40 +4988,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1759" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4140,17 +5107,56 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1759" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3112">
+  <cellStyles count="3372">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -5706,6 +6712,136 @@
     <cellStyle name="超链接" xfId="3106" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3108" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3370" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -7260,6 +8396,136 @@
     <cellStyle name="访问过的超链接" xfId="3107" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3109" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3371" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -7842,7 +9108,7 @@
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="56">
+      <c r="A19" s="80">
         <v>4.1900000000000004</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -7856,7 +9122,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="56"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="26" t="s">
         <v>40</v>
       </c>
@@ -7864,7 +9130,7 @@
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="56"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="22" t="s">
         <v>33</v>
       </c>
@@ -7876,7 +9142,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="56"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="20" t="s">
         <v>41</v>
       </c>
@@ -7900,7 +9166,7 @@
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="56">
+      <c r="A25" s="80">
         <v>4.24</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -7909,7 +9175,7 @@
       <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="56"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="19" t="s">
         <v>50</v>
       </c>
@@ -7918,14 +9184,14 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="56"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="56"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="16" t="s">
         <v>57</v>
       </c>
@@ -7939,7 +9205,7 @@
       <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="56">
+      <c r="A30" s="80">
         <v>4.25</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -7948,21 +9214,21 @@
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="56"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="19" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="56"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="56"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="16" t="s">
         <v>59</v>
       </c>
@@ -7974,7 +9240,7 @@
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="56">
+      <c r="A35" s="80">
         <v>4.26</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -7983,21 +9249,21 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="56"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="19" t="s">
         <v>49</v>
       </c>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="56"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="18" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="56"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="18" t="s">
         <v>58</v>
       </c>
@@ -8012,7 +9278,7 @@
       <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="56">
+      <c r="A40" s="80">
         <v>4.2699999999999996</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -8020,25 +9286,25 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="56"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="56"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="56"/>
+      <c r="A43" s="80"/>
       <c r="B43" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="56">
+      <c r="A45" s="80">
         <v>4.28</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -8046,19 +9312,19 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="56"/>
+      <c r="A46" s="80"/>
       <c r="B46" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="56"/>
+      <c r="A47" s="80"/>
       <c r="B47" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="56"/>
+      <c r="A48" s="80"/>
       <c r="B48" s="16" t="s">
         <v>56</v>
       </c>
@@ -8086,10 +9352,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -8104,16 +9370,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="38"/>
@@ -8121,19 +9387,19 @@
     <row r="6" spans="1:7">
       <c r="A6" s="28"/>
       <c r="B6" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>89</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>91</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>66</v>
@@ -8141,7 +9407,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -8152,14 +9418,14 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="40" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -8170,14 +9436,14 @@
         <v>4.17</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="37" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -8190,30 +9456,30 @@
         <v>68</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -8222,12 +9488,12 @@
       <c r="A12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="B12" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
     </row>
@@ -8242,7 +9508,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -8253,19 +9519,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>92</v>
+        <v>276</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
@@ -8274,17 +9540,17 @@
       <c r="A16" s="28">
         <v>4.25</v>
       </c>
-      <c r="B16" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>103</v>
+      <c r="B16" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>95</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -8293,17 +9559,17 @@
       <c r="A17" s="28">
         <v>4.26</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>142</v>
+      <c r="B17" s="44" t="s">
+        <v>274</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>128</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
@@ -8312,30 +9578,36 @@
       <c r="A18" s="28">
         <v>4.2699999999999996</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>143</v>
+      <c r="B18" s="99" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>129</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="34">
       <c r="A19" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>144</v>
+      <c r="B19" s="100" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>273</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
@@ -8343,6 +9615,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="28"/>
       <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="F20" s="28"/>
@@ -8350,9 +9623,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B21" s="31"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="28"/>
@@ -8360,182 +9634,188 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>100</v>
+        <v>261</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>92</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="28"/>
-      <c r="B23" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>101</v>
+      <c r="B23" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>93</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="28"/>
-      <c r="B24" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>102</v>
+      <c r="B24" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>94</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="28"/>
-      <c r="B25" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>77</v>
+      <c r="B25" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>75</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="28"/>
-      <c r="B26" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="31" t="s">
+      <c r="B26" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>119</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>128</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="C27" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>110</v>
+      <c r="C27" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
+        <v>120</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
     </row>
     <row r="29" spans="1:7">
       <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="34" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="39"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>97</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C31" s="39"/>
       <c r="D31" s="31" t="s">
         <v>111</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="C32" s="31" t="s">
-        <v>98</v>
-      </c>
+      <c r="C32" s="31"/>
       <c r="D32" s="31" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="D33" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="D34" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="D33" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="D34" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" t="s">
-        <v>122</v>
-      </c>
-    </row>
     <row r="35" spans="1:5">
-      <c r="D35" t="s">
-        <v>115</v>
+      <c r="D35" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
+        <v>122</v>
+      </c>
+      <c r="B37" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="D38" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8560,12 +9840,778 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" customHeight="1">
+      <c r="A2" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="98"/>
+    </row>
+    <row r="3" spans="1:5" ht="19">
+      <c r="A3" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="86"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="86"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="49"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="49"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="49"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="49"/>
+      <c r="B10" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="49"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="49"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="65"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="49"/>
+      <c r="B13" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="49"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="49"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="49"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="49"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="49"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="49"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="49"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="49"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="49"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="50"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30">
+      <c r="A25" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="86"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="92"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="51"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="93"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="51"/>
+      <c r="B27" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="51"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="92"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="51"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="93"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="51"/>
+      <c r="B30" s="85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="51"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="51"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="51"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="51"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="51"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="68" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="51"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="52"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="96"/>
+      <c r="B38" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="94"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="92"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="94"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40" s="92"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="94"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" s="93"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="94"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" s="92"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="94"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="E44" s="93"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="94"/>
+      <c r="B45" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" s="57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="94"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="92"/>
+      <c r="E46" s="57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="94"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="94"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="53"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" s="72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="53"/>
+      <c r="B50" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="94"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="D51" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="94"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="95"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="57" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="B54" s="91"/>
+      <c r="C54" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" s="91"/>
+      <c r="E54" s="73" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="92"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="93"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="74" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="B57" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="E57" s="91" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="54"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="E58" s="92"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="54"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="E59" s="93"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="54"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" s="67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="54"/>
+      <c r="B61" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="D61" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="E61" s="57" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="54"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" s="57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="55"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2720" windowWidth="24700" windowHeight="15360" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2900" yWindow="0" windowWidth="19620" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="老计划（废弃）" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="243">
   <si>
     <t>Week1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -256,82 +256,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单词：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词：听力词表1500基础词 Review （1-500）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词：听力词表1500基础词 Review （501-1000）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>写作：基础训练-场景2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>写作：基础训练：复习语法1；学习场景1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>写作：基础训练-场景1（复习）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>写作：基础训练-场景2（复习）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>写作：基础训练-场景3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读：（地质学）TPO1-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读：（生态学）TPO2-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阅读：（生物学） T11R2，T11R3（错题整理和分析）；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阅读：（环境生态学）TPO4-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读：（环境生态）3-3、4-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>精听 ：（地质学）TPO9-3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>精听 ：（地质学）1-3、4-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精听 ：（地质学）TPO5-5、6-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精听 ：（地质学）TPO7-6、9-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精听 ：（艺术家）TPO1-2、3-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3.作文：写作基础文档1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -400,14 +336,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>week3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.29(周1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4.16(周2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -505,10 +433,6 @@
   </si>
   <si>
     <t>(理科)8-3、6-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>week4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -563,18 +487,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.5(周日)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.6(周1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.12(周日)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3、听力（2/d）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -591,10 +503,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>休息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(地质学)1-1、2-1</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -664,16 +572,344 @@
     <t>10-2鲸类进化，</t>
   </si>
   <si>
-    <t>OG游泳机器，</t>
-  </si>
-  <si>
-    <t>OG东非食草动物的进食习惯，</t>
-  </si>
-  <si>
-    <t>Online：机会主义者和竞争者，</t>
-  </si>
-  <si>
     <t>1-3高山林木线，</t>
+  </si>
+  <si>
+    <t>5-1矿物质和植物，</t>
+  </si>
+  <si>
+    <t>3+2篇</t>
+  </si>
+  <si>
+    <t>环境生态学</t>
+  </si>
+  <si>
+    <t>3-2蜂鸟，</t>
+  </si>
+  <si>
+    <t>9-3苔原灌木，</t>
+  </si>
+  <si>
+    <t>10-5磷循环，</t>
+  </si>
+  <si>
+    <t>3-3生态系统长期稳定性，</t>
+  </si>
+  <si>
+    <t>4-1驯鹿数量，</t>
+  </si>
+  <si>
+    <t>6+8篇</t>
+  </si>
+  <si>
+    <t>地质学</t>
+  </si>
+  <si>
+    <t>1-3ULD，</t>
+  </si>
+  <si>
+    <t>4-5移动石头，</t>
+  </si>
+  <si>
+    <t>5-5光谱学，</t>
+  </si>
+  <si>
+    <t>6-6撒哈拉气候改变，</t>
+  </si>
+  <si>
+    <t>7-6冰川活动，</t>
+  </si>
+  <si>
+    <t>9-5沙漠湖，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+  </si>
+  <si>
+    <t>1-1地下水，</t>
+  </si>
+  <si>
+    <t>2-1沙漠形成，</t>
+  </si>
+  <si>
+    <t>3-2蓄水层殆尽，</t>
+  </si>
+  <si>
+    <t>4-3石油资源,</t>
+  </si>
+  <si>
+    <t>5-3寒武纪爆发，</t>
+  </si>
+  <si>
+    <t>6-2威廉姆·史密斯的地质学研究成就，</t>
+  </si>
+  <si>
+    <t>7-1地中海地质史，</t>
+  </si>
+  <si>
+    <t>二、</t>
+  </si>
+  <si>
+    <t>艺术类讲座</t>
+  </si>
+  <si>
+    <t>3+0</t>
+  </si>
+  <si>
+    <t>艺术家</t>
+  </si>
+  <si>
+    <t>1-2Rose Frantzen画家，</t>
+  </si>
+  <si>
+    <t>3-3Jean Painlevé电影制作者，</t>
+  </si>
+  <si>
+    <t>9-2 Loutherbourg布景师，</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>艺术类</t>
+  </si>
+  <si>
+    <t>4-6政府支持艺术，</t>
+  </si>
+  <si>
+    <t>7-2佳构剧，</t>
+  </si>
+  <si>
+    <t>8-3巴黎女艺术家，</t>
+  </si>
+  <si>
+    <t>2+5</t>
+  </si>
+  <si>
+    <t>古代艺术</t>
+  </si>
+  <si>
+    <t>3-5Chauvet岩画，</t>
+  </si>
+  <si>
+    <t>1-2戏剧起源，</t>
+  </si>
+  <si>
+    <t>2-3早期电影，</t>
+  </si>
+  <si>
+    <t>4-2欧洲岩画，</t>
+  </si>
+  <si>
+    <t>10-1中国瓷器，</t>
+  </si>
+  <si>
+    <t>10篇</t>
+  </si>
+  <si>
+    <t>文学</t>
+  </si>
+  <si>
+    <t>语言学</t>
+  </si>
+  <si>
+    <t>哲学</t>
+  </si>
+  <si>
+    <t>2-5亚里士多德，</t>
+  </si>
+  <si>
+    <t>4-3艾默生，</t>
+  </si>
+  <si>
+    <t>5-6民间故事VS童话，</t>
+  </si>
+  <si>
+    <t>6-5人物速写，</t>
+  </si>
+  <si>
+    <t>文化历史</t>
+  </si>
+  <si>
+    <t>5篇</t>
+  </si>
+  <si>
+    <t>历史类</t>
+  </si>
+  <si>
+    <t>7-5Iroquois人和白桦树，</t>
+  </si>
+  <si>
+    <t>8-5视觉矫正，</t>
+  </si>
+  <si>
+    <t>10-3美洲农作物，</t>
+  </si>
+  <si>
+    <t>9篇</t>
+  </si>
+  <si>
+    <t>考古学</t>
+  </si>
+  <si>
+    <t>人类学</t>
+  </si>
+  <si>
+    <t>7-3农业，铁器和班图人，</t>
+  </si>
+  <si>
+    <t>8-1墨西哥古文化崛起，</t>
+  </si>
+  <si>
+    <t>社会学</t>
+  </si>
+  <si>
+    <t>5-2文化基因=生物基因，</t>
+  </si>
+  <si>
+    <t>6篇</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>6-2郁金香繁荣与萧条，</t>
+  </si>
+  <si>
+    <t>古代社会（政治经济）</t>
+  </si>
+  <si>
+    <t>7-2古希腊罗马文化，</t>
+  </si>
+  <si>
+    <t>10-3欧洲十七世纪经济增长，"</t>
+  </si>
+  <si>
+    <t>三、</t>
+  </si>
+  <si>
+    <t>心理学</t>
+  </si>
+  <si>
+    <t>理科讲座</t>
+  </si>
+  <si>
+    <t>科技能源历史类</t>
+  </si>
+  <si>
+    <t>6-1工业革命，</t>
+  </si>
+  <si>
+    <t>14篇</t>
+  </si>
+  <si>
+    <t>天文学</t>
+  </si>
+  <si>
+    <t>2-6波德定律+小行星带，</t>
+  </si>
+  <si>
+    <t>3-6光谱学测元素，</t>
+  </si>
+  <si>
+    <t>5-3登陆月球，</t>
+  </si>
+  <si>
+    <t>8-3火星流水，</t>
+  </si>
+  <si>
+    <t>物理/化学/工科</t>
+  </si>
+  <si>
+    <t>2-2行为学研究，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-6忘记儿童期事件，                  </t>
+  </si>
+  <si>
+    <t>(生物学)1~4篇-查漏补缺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(生物学)5~7篇查漏补缺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1、2-1---复习</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词：生物学-听力3篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短语：60个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短语：60个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词：生物学单词-听力4篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(生物学)1~4篇-精听复习（一半）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(生物学)5~7篇-精听复习（一半）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单词：生态-阅读2篇
+2.短语：60个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础训练-场景5/6（复习）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础训练-场景3：背</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景5：背+做</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景6：背+做</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.29（week3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-3植物扎根夏威夷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-3婴儿失忆现象，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5Çatalhöyük遗址，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1西北海岸线殖民美洲，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2太平洋岛民起源，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2白垩纪恐龙灭绝，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -683,162 +919,11 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
     </r>
-  </si>
-  <si>
-    <t>5-1矿物质和植物，</t>
-  </si>
-  <si>
-    <t>9-3植物扎根夏威夷</t>
-  </si>
-  <si>
-    <t>3+2篇</t>
-  </si>
-  <si>
-    <t>环境生态学</t>
-  </si>
-  <si>
-    <t>3-2蜂鸟，</t>
-  </si>
-  <si>
-    <t>9-3苔原灌木，</t>
-  </si>
-  <si>
-    <t>10-5磷循环，</t>
-  </si>
-  <si>
-    <t>3-3生态系统长期稳定性，</t>
-  </si>
-  <si>
-    <t>4-1驯鹿数量，</t>
-  </si>
-  <si>
-    <t>6+8篇</t>
-  </si>
-  <si>
-    <t>地质学</t>
-  </si>
-  <si>
-    <t>1-3ULD，</t>
-  </si>
-  <si>
-    <t>4-5移动石头，</t>
-  </si>
-  <si>
-    <t>5-5光谱学，</t>
-  </si>
-  <si>
-    <t>6-6撒哈拉气候改变，</t>
-  </si>
-  <si>
-    <t>7-6冰川活动，</t>
-  </si>
-  <si>
-    <t>9-5沙漠湖，</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              </t>
-  </si>
-  <si>
-    <t>OG地质学和地形，</t>
-  </si>
-  <si>
-    <t>OG绿色冰山，</t>
-  </si>
-  <si>
-    <t>Model：陨石冲击力和恐龙灭绝，</t>
-  </si>
-  <si>
-    <t>1-1地下水，</t>
-  </si>
-  <si>
-    <t>2-1沙漠形成，</t>
-  </si>
-  <si>
-    <t>3-2蓄水层殆尽，</t>
-  </si>
-  <si>
-    <t>4-3石油资源,</t>
-  </si>
-  <si>
-    <t>5-3寒武纪爆发，</t>
-  </si>
-  <si>
-    <t>6-2威廉姆·史密斯的地质学研究成就，</t>
-  </si>
-  <si>
-    <t>7-1地中海地质史，</t>
-  </si>
-  <si>
-    <t>8-2白垩纪恐龙灭绝，</t>
-  </si>
-  <si>
-    <t>二、</t>
-  </si>
-  <si>
-    <t>艺术类讲座</t>
-  </si>
-  <si>
-    <t>3+0</t>
-  </si>
-  <si>
-    <t>艺术家</t>
-  </si>
-  <si>
-    <t>1-2Rose Frantzen画家，</t>
-  </si>
-  <si>
-    <t>3-3Jean Painlevé电影制作者，</t>
-  </si>
-  <si>
-    <t>9-2 Loutherbourg布景师，</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>艺术类</t>
-  </si>
-  <si>
-    <t>4-6政府支持艺术，</t>
-  </si>
-  <si>
-    <t>7-2佳构剧，</t>
-  </si>
-  <si>
-    <t>8-3巴黎女艺术家，</t>
-  </si>
-  <si>
-    <t>2+5</t>
-  </si>
-  <si>
-    <t>古代艺术</t>
-  </si>
-  <si>
-    <t>3-5Chauvet岩画，</t>
-  </si>
-  <si>
-    <t>18-3罗马复制希腊雕塑，</t>
-  </si>
-  <si>
-    <t>OG应用艺术和纯艺术，</t>
-  </si>
-  <si>
-    <t>OGLoie Fuller，</t>
-  </si>
-  <si>
-    <t>OG岩画，</t>
-  </si>
-  <si>
-    <t>1-2戏剧起源，</t>
-  </si>
-  <si>
-    <t>2-3早期电影，</t>
   </si>
   <si>
     <r>
@@ -848,272 +933,47 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
     </r>
   </si>
   <si>
-    <t>4-2欧洲岩画，</t>
-  </si>
-  <si>
-    <t>10-1中国瓷器，</t>
-  </si>
-  <si>
-    <t>10篇</t>
-  </si>
-  <si>
-    <t>文学</t>
-  </si>
-  <si>
-    <t>语言学</t>
-  </si>
-  <si>
-    <t>哲学</t>
-  </si>
-  <si>
-    <t>2-5亚里士多德，</t>
-  </si>
-  <si>
-    <t>4-3艾默生，</t>
-  </si>
-  <si>
-    <t>5-6民间故事VS童话，</t>
-  </si>
-  <si>
-    <t>6-5人物速写，</t>
-  </si>
-  <si>
-    <t>文化历史</t>
-  </si>
-  <si>
-    <t>5篇</t>
-  </si>
-  <si>
-    <t>历史类</t>
-  </si>
-  <si>
-    <t>7-5Iroquois人和白桦树，</t>
-  </si>
-  <si>
-    <t>8-5视觉矫正，</t>
-  </si>
-  <si>
-    <t>10-3美洲农作物，</t>
-  </si>
-  <si>
-    <t>9篇</t>
-  </si>
-  <si>
-    <t>考古学</t>
-  </si>
-  <si>
-    <t>人类学</t>
-  </si>
-  <si>
-    <t>1-5Çatalhöyük遗址，</t>
-  </si>
-  <si>
-    <t>"5-2太平洋岛民起源，</t>
-  </si>
-  <si>
-    <t>7-3农业，铁器和班图人，</t>
-  </si>
-  <si>
-    <t>8-1墨西哥古文化崛起，</t>
-  </si>
-  <si>
-    <t>9-1西北海岸线殖民美洲，"</t>
-  </si>
-  <si>
-    <t>社会学</t>
-  </si>
-  <si>
-    <t>5-2文化基因=生物基因，</t>
-  </si>
-  <si>
-    <t>6篇</t>
-  </si>
-  <si>
-    <t>经济学</t>
-  </si>
-  <si>
-    <t>6-2郁金香繁荣与萧条，</t>
-  </si>
-  <si>
-    <t>古代社会（政治经济）</t>
-  </si>
-  <si>
-    <t>"OG美国十九世纪的政治,</t>
-  </si>
-  <si>
-    <t>7-2古希腊罗马文化，</t>
-  </si>
-  <si>
-    <t>10-3欧洲十七世纪经济增长，"</t>
-  </si>
-  <si>
-    <t>三、</t>
-  </si>
-  <si>
-    <t>天文学+</t>
-  </si>
-  <si>
-    <t>心理学</t>
-  </si>
-  <si>
-    <t>理科讲座</t>
-  </si>
-  <si>
-    <t>科技能源历史类</t>
-  </si>
-  <si>
-    <t>OG手工艺者和工业革命，</t>
-  </si>
-  <si>
-    <r>
-      <t>Online风力发电</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-  </si>
-  <si>
-    <t>6-1工业革命，</t>
-  </si>
-  <si>
-    <t>14篇</t>
-  </si>
-  <si>
-    <t>天文学</t>
-  </si>
-  <si>
-    <t>2-6波德定律+小行星带，</t>
-  </si>
-  <si>
-    <t>3-6光谱学测元素，</t>
-  </si>
-  <si>
-    <t>5-3登陆月球，</t>
-  </si>
-  <si>
-    <t>8-3火星流水，</t>
-  </si>
-  <si>
-    <t>物理/化学/工科</t>
-  </si>
-  <si>
-    <t>2-2行为学研究，</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-6忘记儿童期事件，                  </t>
-  </si>
-  <si>
-    <t>OG侵略行为，</t>
-  </si>
-  <si>
-    <t>OG情感行为，</t>
-  </si>
-  <si>
-    <t>6-3婴儿失忆现象，</t>
-  </si>
-  <si>
-    <t>(生物学)1~4篇-查漏补缺</t>
+    <t>4.30-5.2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(生物学)5~7篇查漏补缺</t>
+    <t>5.3号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生物学-听力3篇</t>
+    <t xml:space="preserve">场景1：练习-复习
+            作文-完成
+场景2：练习-整理+复习
+</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景3：完成l练习；
+场景2：复习表达+完成作文</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>地质学-阅读4篇</t>
+    <t>场景3：背表达
+总结：冠词的用法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>地质学-听力4篇</t>
+    <t>休息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>地质学-听力2+阅读2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地质学-阅读3篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景2/3（复习）</t>
+    <t>场景4：做</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>基础训练-场景4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景4/5（复习）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础训练-场景6（复习）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1、2-1---复习</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词：生物学-听力3篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>短语：60个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>短语：60个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词：生物学单词-听力4篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(生物学)1~4篇-精听复习（一半）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(生物学)5~7篇-精听复习（一半）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.单词：生态-阅读2篇
-2.短语：60个</t>
+    <t>场景4：背</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1124,7 +984,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1221,70 +1081,43 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFE26B0A"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1344,7 +1177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1401,19 +1234,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1448,17 +1268,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1501,7 +1310,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3372">
+  <cellStyleXfs count="3900">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3264,6 +3073,534 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4896,9 +5233,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4988,108 +5322,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5098,65 +5346,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="1759" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="1759" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3372">
+  <cellStyles count="3900">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -6842,6 +7179,270 @@
     <cellStyle name="超链接" xfId="3366" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3368" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3764" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3766" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3768" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3770" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3772" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3786" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3794" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3796" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3798" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3810" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3812" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3814" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3816" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3818" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3820" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3822" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3824" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3826" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3828" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3830" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3832" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3834" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3836" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3838" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3840" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3842" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3844" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3846" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3848" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3850" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3852" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3854" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3856" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3858" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3860" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3862" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3864" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3866" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3868" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3870" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3872" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3874" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3876" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3878" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3880" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3882" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3884" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3886" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3888" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3890" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3892" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3894" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3896" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3898" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -8526,6 +9127,270 @@
     <cellStyle name="访问过的超链接" xfId="3367" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3369" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3771" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3795" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3797" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3799" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3811" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3813" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3815" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3817" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3819" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3821" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3823" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3825" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3827" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3829" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3831" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3833" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3835" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3837" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3839" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3841" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3843" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3845" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3847" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3849" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3851" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3853" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3855" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3857" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3859" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3861" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3863" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3865" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3867" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3869" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3871" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3873" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3875" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3877" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3879" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3881" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3883" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3885" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3887" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3889" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3891" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3893" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3895" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3897" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3899" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -8858,104 +9723,104 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="10"/>
+    <col min="1" max="1" width="8.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>4.16</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="12"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1">
@@ -8963,38 +9828,38 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>4.17</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1">
@@ -9002,14 +9867,14 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1">
@@ -9017,14 +9882,14 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="1">
@@ -9032,58 +9897,58 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>4.18</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="1">
@@ -9091,11 +9956,11 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="1">
@@ -9103,18 +9968,18 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="5"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="80">
+      <c r="A19" s="49">
         <v>4.1900000000000004</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="1">
@@ -9122,221 +9987,87 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="80"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="80"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="80"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="23"/>
-      <c r="B23" s="20"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="19"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="E24" s="12"/>
+      <c r="B24" s="16"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="80">
+      <c r="A25" s="49">
         <v>4.24</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="80"/>
-      <c r="B26" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="24">
+      <c r="A26" s="49"/>
+      <c r="B26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="80"/>
-      <c r="B27" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="12"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="80"/>
-      <c r="B28" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="21">
+      <c r="A28" s="49"/>
+      <c r="B28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="9"/>
-      <c r="B29" s="16"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="80">
-        <v>4.25</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="80"/>
-      <c r="B31" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="80"/>
-      <c r="B32" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="80"/>
-      <c r="B33" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="9"/>
-      <c r="B34" s="16"/>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="80">
-        <v>4.26</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="80"/>
-      <c r="B36" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="80"/>
-      <c r="B37" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="80"/>
-      <c r="B38" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="9"/>
-      <c r="B39" s="16"/>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="80">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="80"/>
-      <c r="B41" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="80"/>
-      <c r="B42" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="80"/>
-      <c r="B43" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="80">
-        <v>4.28</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="80"/>
-      <c r="B46" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="80"/>
-      <c r="B47" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="80"/>
-      <c r="B48" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A45:A48"/>
+  <mergeCells count="2">
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A40:A43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9352,10 +10083,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -9370,461 +10101,436 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="38"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="27">
+        <v>4.17</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="27">
+        <v>4.18</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="34"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="27">
+        <v>4.25</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27">
+        <v>4.26</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="27">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" ht="34">
+      <c r="A19" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" ht="68">
+      <c r="A20" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" ht="34">
+      <c r="A22" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" ht="34">
+      <c r="A23" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="27">
+        <v>5.5</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="27"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="27"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="38"/>
+      <c r="D29" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="30"/>
+      <c r="D30" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="D31" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="D32" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="31" t="s">
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="28">
-        <v>4.17</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="28">
-        <v>4.18</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="35"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="28">
-        <v>4.25</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>278</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="28">
-        <v>4.26</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="28">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="78" t="s">
-        <v>259</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:7" ht="34">
-      <c r="A19" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="100" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="28"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="28"/>
-      <c r="B23" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="D23" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="28"/>
-      <c r="B24" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="28"/>
-      <c r="B25" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="28"/>
-      <c r="B26" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="C27" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="D29" s="39"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="39"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="C32" s="31"/>
-      <c r="D32" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="D33" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="D34" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="D35" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="D38" s="39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9840,10 +10546,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -9854,763 +10560,655 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" customHeight="1">
+      <c r="A2" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="61"/>
+    </row>
+    <row r="3" spans="1:5" ht="22">
+      <c r="A3" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="66"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="74"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="66"/>
+      <c r="B10" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E10" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="75" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1">
-      <c r="A2" s="76" t="s">
+      <c r="E11" s="65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="66"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="97" t="s">
+      <c r="E12" s="77"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="66"/>
+      <c r="B13" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="98"/>
-    </row>
-    <row r="3" spans="1:5" ht="19">
-      <c r="A3" s="48" t="s">
+      <c r="C13" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="D13" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="E16" s="78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="E17" s="78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E18" s="78" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="56" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E19" s="78" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="57" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="80" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="58" t="s">
+      <c r="B21" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="34">
+      <c r="A22" s="80" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="49"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="59" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="82"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="80"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="83"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="80"/>
+      <c r="B24" s="63" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="49"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="49"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="49"/>
-      <c r="B10" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="58" t="s">
+      <c r="C24" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="58" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="80"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="84" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="49"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="58" t="s">
+      <c r="E25" s="82"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="80"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="85" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="49"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="65"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="49"/>
-      <c r="B13" s="85" t="s">
+      <c r="E26" s="83"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="80"/>
+      <c r="B27" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C27" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D27" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E27" s="84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="80"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="80"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="86" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="80"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="80"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="87"/>
+      <c r="B32" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="89"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="88" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="49"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="63" t="s">
+      <c r="D33" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="82"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="89"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="88" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="49"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="49"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="49"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="62" t="s">
+      <c r="D34" s="84" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="49"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="62" t="s">
+      <c r="E34" s="82"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="89"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="85" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="49"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="62" t="s">
+      <c r="E35" s="83"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="89" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="49"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62" t="s">
+      <c r="B36" s="63" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="49"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62" t="s">
+      <c r="C36" s="64" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="49"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62" t="s">
+      <c r="D36" s="84" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="50"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65" t="s">
+      <c r="E36" s="81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="89"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="84" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="51" t="s">
+      <c r="E37" s="82"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="89"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="E38" s="83"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="89"/>
+      <c r="B39" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="D39" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="E39" s="84" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="89"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D40" s="82"/>
+      <c r="E40" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="91" t="s">
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="89"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="89"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="84" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="91"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="85" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="30">
-      <c r="A25" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="92"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="51"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" s="93"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="51"/>
-      <c r="B27" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="88" t="s">
+      <c r="E43" s="93" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="91"/>
+      <c r="B44" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="C44" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="91" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="51"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="57" t="s">
+      <c r="D44" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="92"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="51"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="67" t="s">
+      <c r="E44" s="85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="89"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="E29" s="93"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="51"/>
-      <c r="B30" s="85" t="s">
+      <c r="D45" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="88" t="s">
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="89"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="57" t="s">
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="B47" s="95"/>
+      <c r="C47" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="95"/>
+      <c r="E47" s="97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="94" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="51"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="51"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="51"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57" t="s">
+      <c r="B48" s="63" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="51"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="68" t="s">
+      <c r="C48" s="64" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="51"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="68" t="s">
+      <c r="D48" s="84" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="51"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57" t="s">
+      <c r="E48" s="95" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="94"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="84" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="52"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67" t="s">
+      <c r="E49" s="98"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="94"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="85" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="96"/>
-      <c r="B38" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="69" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="E38" s="91" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="94"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="92"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="94"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="E40" s="92"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="94"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="E41" s="93"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="94" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="85" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="88" t="s">
-        <v>218</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="E42" s="91" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="94"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="E43" s="92"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="94"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="E44" s="93"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="94"/>
-      <c r="B45" s="85" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="69" t="s">
-        <v>223</v>
-      </c>
-      <c r="D45" s="91" t="s">
-        <v>225</v>
-      </c>
-      <c r="E45" s="57" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="94"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="D46" s="92"/>
-      <c r="E46" s="57" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="94"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="57" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="94"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="57" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="53"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="D49" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="E49" s="72" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="53"/>
-      <c r="B50" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="C50" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="D50" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E50" s="67" t="s">
-        <v>191</v>
-      </c>
+      <c r="E50" s="99"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="94"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="88" t="s">
-        <v>235</v>
-      </c>
-      <c r="D51" s="91" t="s">
-        <v>191</v>
-      </c>
-      <c r="E51" s="57" t="s">
-        <v>236</v>
+      <c r="B51" s="92"/>
+      <c r="C51" s="90" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="85" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="94"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="57" t="s">
-        <v>237</v>
+      <c r="B52" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="84" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="95"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="57" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="88" t="s">
-        <v>243</v>
-      </c>
-      <c r="D54" s="91"/>
-      <c r="E54" s="73" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="B55" s="92"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="57" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="B56" s="93"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="74" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="B57" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="C57" s="88" t="s">
-        <v>248</v>
-      </c>
-      <c r="D57" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="E57" s="91" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="54"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="E58" s="92"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="54"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="E59" s="93"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="54"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="70" t="s">
-        <v>253</v>
-      </c>
-      <c r="D60" s="75" t="s">
-        <v>191</v>
-      </c>
-      <c r="E60" s="67" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="54"/>
-      <c r="B61" s="85" t="s">
-        <v>217</v>
-      </c>
-      <c r="C61" s="88" t="s">
-        <v>241</v>
-      </c>
-      <c r="D61" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="E61" s="57" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="54"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="57" t="s">
-        <v>255</v>
-      </c>
-      <c r="E62" s="57" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="55"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67" t="s">
-        <v>258</v>
-      </c>
+      <c r="A53" s="94"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="C13:C23"/>
+  <mergeCells count="33">
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E21:E23"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C20"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="0" windowWidth="19620" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1220" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="老计划（废弃）" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="241">
   <si>
     <t>Week1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -276,14 +276,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>基础0-500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础1001-1500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>4.20-4.23</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -320,10 +312,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>基础501-1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>(生物学)11-2、11-3</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -345,18 +333,6 @@
   </si>
   <si>
     <t>4.24(周3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、单词</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、作文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、口语</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -487,22 +463,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3、听力（2/d）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、阅读(2/d)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>基础训练-场景1（复习）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>休息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(地质学)1-1、2-1</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -530,9 +494,6 @@
     <t>学科</t>
   </si>
   <si>
-    <t>TPO1-10</t>
-  </si>
-  <si>
     <t>一、</t>
   </si>
   <si>
@@ -839,32 +800,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>单词：生物学-听力3篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>短语：60个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>短语：60个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词：生物学单词-听力4篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(生物学)1~4篇-精听复习（一半）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(生物学)5~7篇-精听复习（一半）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.单词：生态-阅读2篇
-2.短语：60个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -948,33 +888,85 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">场景1：练习-复习
-            作文-完成
-场景2：练习-整理+复习
-</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景3：完成l练习；
-场景2：复习表达+完成作文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>场景3：背表达
 总结：冠词的用法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>休息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>场景4：做</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>场景4：背</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1次课-5.4号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6（week4）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10hao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.13(week5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.20（week6）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO1-10（40篇）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景3：完成练习；
+场景2：复习表达+完成作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景3：复习表达+整理讲解
+场景2：复习表达+整理作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学[1篇]-背单词/逐句精析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学[1篇]-背单词/逐句精析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、听力（2/d）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、阅读(2/d)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、口语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景1：练习-复习
+            作文-完成
+场景2：练习-整理+复习</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -984,7 +976,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1074,13 +1066,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1121,7 +1106,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,12 +1153,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1310,7 +1289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3900">
+  <cellStyleXfs count="4118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -5213,8 +5192,226 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5282,13 +5479,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1759" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1759" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1759" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
@@ -5303,9 +5494,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5331,23 +5519,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5358,142 +5531,120 @@
     <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="1759" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3900">
+  <cellStyles count="4118">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -7443,6 +7594,115 @@
     <cellStyle name="超链接" xfId="3894" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3896" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3898" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3900" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3902" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3904" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3906" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3908" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3910" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3912" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3914" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3916" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3918" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3920" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3922" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3924" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3926" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3928" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3930" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3932" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3934" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3936" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3938" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3940" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3942" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3944" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3946" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3948" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3950" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3952" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3954" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3956" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3958" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3960" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3962" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3964" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3966" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3968" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3970" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3972" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3974" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3976" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3978" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3980" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3982" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3984" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3986" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3988" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3990" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3992" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3994" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3996" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3998" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4000" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4002" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4004" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4006" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4008" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4010" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4012" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4014" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4016" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4018" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4020" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4022" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4024" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4026" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4028" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4030" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4032" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4034" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4036" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4038" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4040" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4042" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4044" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4046" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4048" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4050" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4052" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4054" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4056" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4058" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4060" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4062" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4064" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4066" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4068" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4070" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4072" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4074" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4076" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4078" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4080" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4082" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4084" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4086" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4088" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4090" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4092" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4094" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4096" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4098" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4116" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -9391,6 +9651,115 @@
     <cellStyle name="访问过的超链接" xfId="3895" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3897" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3899" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3901" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3903" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3905" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3907" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3909" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3911" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3913" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3915" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3917" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3919" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3921" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3923" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3925" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3927" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3929" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3931" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3933" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3935" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3937" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3939" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3941" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3943" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3945" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3947" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3949" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3951" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3953" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3955" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3957" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3959" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3961" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3963" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3965" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3967" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3969" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3971" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3973" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3975" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3977" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3979" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3981" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3983" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3985" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3987" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3989" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3991" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3993" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3995" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3997" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3999" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4001" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4003" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4005" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4007" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4009" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4011" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4013" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4015" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4017" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4019" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4021" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4023" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4025" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4027" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4029" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4031" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4033" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4035" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4037" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4039" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4041" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4043" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4045" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4047" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4049" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4051" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4053" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4055" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4057" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4059" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4061" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4063" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4065" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4067" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4069" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4071" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4073" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4075" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4077" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4079" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4081" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4083" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4085" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4087" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4089" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4091" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4093" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4095" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4097" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4099" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4117" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -9723,10 +10092,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -9973,7 +10342,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="49">
+      <c r="A19" s="76">
         <v>4.1900000000000004</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -9987,7 +10356,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="49"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="25" t="s">
         <v>40</v>
       </c>
@@ -9995,7 +10364,7 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="49"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
@@ -10007,7 +10376,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="49"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="19" t="s">
         <v>41</v>
       </c>
@@ -10031,7 +10400,7 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="49">
+      <c r="A25" s="76">
         <v>4.24</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -10040,7 +10409,7 @@
       <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="49"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="18" t="s">
         <v>46</v>
       </c>
@@ -10049,19 +10418,27 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="49"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="49"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="20">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10083,454 +10460,439 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
+    <row r="2" spans="1:6">
+      <c r="A2" s="27"/>
+      <c r="B2" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="32"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="32"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="37"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="27">
+        <v>4.17</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="27"/>
-      <c r="B6" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>50</v>
-      </c>
+    <row r="6" spans="1:6">
+      <c r="A6" s="27">
+        <v>4.18</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>60</v>
+      </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="39" t="s">
-        <v>78</v>
-      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="27">
-        <v>4.17</v>
-      </c>
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="32"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="36" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="27">
+        <v>4.25</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="27">
+        <v>4.26</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="27">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="27">
-        <v>4.18</v>
-      </c>
-      <c r="B10" s="28" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" ht="51">
+      <c r="A16" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" ht="34">
+      <c r="A18" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" ht="34">
+      <c r="A19" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" ht="34">
+      <c r="A20" s="27">
+        <v>5.5</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="40" t="s">
+      <c r="D22" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="32">
+        <v>5.9</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="35">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="29">
+        <v>5.12</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="35">
+        <v>5.14</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="35">
+        <v>5.15</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="35">
+        <v>5.16</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+    <row r="31" spans="1:6">
+      <c r="A31" s="35">
+        <v>5.17</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+    <row r="32" spans="1:6">
+      <c r="A32" s="35">
+        <v>5.18</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="34"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+    <row r="33" spans="1:3">
+      <c r="A33" s="35">
+        <v>5.19</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="27">
-        <v>4.25</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="27">
-        <v>4.26</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="27">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" ht="34">
-      <c r="A19" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:7" ht="68">
-      <c r="A20" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" ht="34">
-      <c r="A22" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" ht="34">
-      <c r="A23" s="27">
-        <v>5.4</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="27">
-        <v>5.5</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="27"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="27"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="38"/>
-      <c r="C27" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="C28" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="38"/>
-      <c r="D29" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="30"/>
-      <c r="D30" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="D31" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="42" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="D32" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="D33" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="D37" s="38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="D38" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B21:E21"/>
+  <mergeCells count="2">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10546,10 +10908,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -10557,622 +10919,690 @@
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="45.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:6" ht="17" customHeight="1">
+      <c r="A2" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="83"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:6" ht="22">
+      <c r="A3" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="C3" s="77" t="s">
         <v>109</v>
       </c>
+      <c r="D3" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="47">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1">
-      <c r="A2" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="59" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="E4" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="E5" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="61"/>
+      <c r="E6" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="47">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="22">
-      <c r="A3" s="62" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="54"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="64" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="54"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="54"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="54"/>
+      <c r="B10" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="C10" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="D10" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="54"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="54"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="54"/>
+      <c r="B13" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="77" t="s">
         <v>127</v>
       </c>
+      <c r="D13" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="47"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>233</v>
-      </c>
+    <row r="14" spans="1:6">
+      <c r="A14" s="54"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="47"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>128</v>
-      </c>
+    <row r="15" spans="1:6">
+      <c r="A15" s="54"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="47"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>227</v>
-      </c>
+    <row r="16" spans="1:6">
+      <c r="A16" s="54"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="47"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="9"/>
+    <row r="17" spans="1:6">
+      <c r="A17" s="54"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="47"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="9"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="54"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="47"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="66"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="74"/>
+    <row r="19" spans="1:6">
+      <c r="A19" s="54"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="47"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="66"/>
-      <c r="B10" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>134</v>
-      </c>
+    <row r="20" spans="1:6">
+      <c r="A20" s="54"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="47"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>135</v>
-      </c>
+    <row r="21" spans="1:6">
+      <c r="A21" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="47"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="66"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="77"/>
+    <row r="22" spans="1:6" ht="34">
+      <c r="A22" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="47"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="66"/>
-      <c r="B13" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>145</v>
-      </c>
+    <row r="23" spans="1:6">
+      <c r="A23" s="64"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="79"/>
+      <c r="F23" s="47"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>146</v>
-      </c>
+    <row r="24" spans="1:6">
+      <c r="A24" s="64"/>
+      <c r="B24" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="47"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>147</v>
-      </c>
+    <row r="25" spans="1:6">
+      <c r="A25" s="64"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="78"/>
+      <c r="F25" s="47"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>148</v>
-      </c>
+    <row r="26" spans="1:6">
+      <c r="A26" s="64"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="79"/>
+      <c r="F26" s="47"/>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="78" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="78" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="64"/>
+      <c r="B27" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="47"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="64"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="47"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="64"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="47"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="64"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="64"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="47"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="81"/>
+      <c r="B32" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="77" t="s">
         <v>149</v>
       </c>
+      <c r="F32" s="47"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>150</v>
-      </c>
+    <row r="33" spans="1:6">
+      <c r="A33" s="80"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="78"/>
+      <c r="F33" s="47"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>151</v>
-      </c>
+    <row r="34" spans="1:6">
+      <c r="A34" s="80"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="78"/>
+      <c r="F34" s="47"/>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78" t="s">
-        <v>232</v>
-      </c>
+    <row r="35" spans="1:6">
+      <c r="A35" s="80"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="79"/>
+      <c r="F35" s="47"/>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="81" t="s">
-        <v>159</v>
-      </c>
+    <row r="36" spans="1:6">
+      <c r="A36" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="47"/>
     </row>
-    <row r="22" spans="1:5" ht="34">
-      <c r="A22" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="78" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="82"/>
+    <row r="37" spans="1:6">
+      <c r="A37" s="80"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="78"/>
+      <c r="F37" s="47"/>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="80"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="83"/>
+    <row r="38" spans="1:6">
+      <c r="A38" s="80"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="79"/>
+      <c r="F38" s="47"/>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="80"/>
-      <c r="B24" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="81" t="s">
-        <v>159</v>
-      </c>
+    <row r="39" spans="1:6">
+      <c r="A39" s="80"/>
+      <c r="B39" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39" s="47"/>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="80"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="82"/>
+    <row r="40" spans="1:6">
+      <c r="A40" s="80"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="78"/>
+      <c r="E40" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="47"/>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="80"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26" s="83"/>
+    <row r="41" spans="1:6">
+      <c r="A41" s="80"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="47"/>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="80"/>
-      <c r="B27" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="84" t="s">
-        <v>167</v>
-      </c>
+    <row r="42" spans="1:6">
+      <c r="A42" s="80"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="F42" s="47"/>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="80"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="86" t="s">
-        <v>168</v>
-      </c>
+    <row r="43" spans="1:6">
+      <c r="A43" s="64"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="47"/>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="80"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="86" t="s">
-        <v>234</v>
-      </c>
+    <row r="44" spans="1:6">
+      <c r="A44" s="64"/>
+      <c r="B44" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="47"/>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="80"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84" t="s">
-        <v>169</v>
-      </c>
+    <row r="45" spans="1:6">
+      <c r="A45" s="80"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="D45" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="47"/>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="80"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="85" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46" s="80"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="47"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="70"/>
+      <c r="E47" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="47"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" s="47"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="69"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="72"/>
+      <c r="F49" s="47"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="69"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" s="73"/>
+      <c r="F50" s="47"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="69"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="47"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="69"/>
+      <c r="B52" s="77" t="s">
         <v>170</v>
       </c>
+      <c r="C52" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="F52" s="47"/>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="87"/>
-      <c r="B32" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="E32" s="81" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="89"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="E33" s="82"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="89"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" s="82"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="89"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="85" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35" s="83"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="81" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="89"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" s="82"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="89"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="83"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="89"/>
-      <c r="B39" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="E39" s="84" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="89"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="82"/>
-      <c r="E40" s="84" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="89"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="84" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="89"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="84" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="91"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="D43" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="E43" s="93" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="91"/>
-      <c r="B44" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="D44" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="85" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="89"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="E45" s="84" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="89"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="84" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="94" t="s">
-        <v>198</v>
-      </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="96" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" s="69"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="D47" s="95"/>
-      <c r="E47" s="97" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="94" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="C48" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="E48" s="95" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="94"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="E49" s="98"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="94"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="E50" s="99"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="94"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="90" t="s">
-        <v>209</v>
-      </c>
-      <c r="D51" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="E51" s="85" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="94"/>
-      <c r="B52" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="D52" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="84" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="94"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="84" t="s">
-        <v>211</v>
-      </c>
-      <c r="E53" s="84"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -11198,8 +11628,6 @@
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
     <mergeCell ref="D39:D42"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
@@ -11209,6 +11637,8 @@
     <mergeCell ref="C52:C53"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7740" yWindow="0" windowWidth="15660" windowHeight="15600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="老计划（废弃）" sheetId="1" r:id="rId1"/>
     <sheet name="新计划" sheetId="3" r:id="rId2"/>
     <sheet name="学科分类(听力+阅读)" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="242">
   <si>
     <t>Week1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -897,10 +897,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>场景4：背</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>第二轮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -936,14 +932,6 @@
   <si>
     <t>场景3：复习表达+整理讲解
 场景2：复习表达+整理作文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生物学[1篇]-背单词/逐句精析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生物学[1篇]-背单词/逐句精析</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -967,6 +955,22 @@
             作文-完成
 场景2：练习-整理+复习</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学1-6：背单词/逐句精析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学1-3：背单词/逐句精析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学2-3：背单词/逐句精析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学2-2：背单词/逐句精析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1289,7 +1293,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4118">
+  <cellStyleXfs count="4216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3052,6 +3056,104 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5619,6 +5721,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5628,23 +5733,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4118">
+  <cellStyles count="4216">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -7703,6 +7805,55 @@
     <cellStyle name="超链接" xfId="4112" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4114" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4214" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -9760,6 +9911,55 @@
     <cellStyle name="访问过的超链接" xfId="4113" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4115" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4215" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -10094,7 +10294,7 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -10435,10 +10635,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10460,10 +10660,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:F34"/>
+  <dimension ref="A2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -10479,16 +10679,16 @@
     <row r="2" spans="1:6">
       <c r="A2" s="27"/>
       <c r="B2" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>236</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>239</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>50</v>
@@ -10566,9 +10766,9 @@
       <c r="A8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
     </row>
@@ -10675,7 +10875,7 @@
         <v>211</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -10684,9 +10884,9 @@
       <c r="A17" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
     </row>
@@ -10707,7 +10907,7 @@
         <v>5.4</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -10717,23 +10917,27 @@
         <v>5.5</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>224</v>
+        <v>226</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -10742,15 +10946,6 @@
       <c r="A22" s="27">
         <v>5.8</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>68</v>
-      </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
     </row>
@@ -10758,134 +10953,169 @@
       <c r="A23" s="32">
         <v>5.9</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="35">
         <v>5.1100000000000003</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="29">
         <v>5.12</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>77</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="35">
         <v>5.14</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="35">
         <v>5.15</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="35">
         <v>5.16</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="35">
         <v>5.17</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="35">
         <v>5.18</v>
       </c>
-      <c r="C32" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="35">
         <v>5.19</v>
       </c>
-      <c r="C33" s="35" t="s">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="C42" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="C44" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="C45" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="C46" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="C47" s="35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="48" spans="1:4">
+      <c r="C48" t="s">
         <v>83</v>
       </c>
     </row>
@@ -10910,8 +11140,8 @@
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -10944,20 +11174,20 @@
       <c r="C2" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="82" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="83"/>
+      <c r="D2" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="82"/>
       <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="22">
       <c r="A3" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="78" t="s">
         <v>109</v>
       </c>
       <c r="D3" s="53" t="s">
@@ -10974,9 +11204,9 @@
       <c r="A4" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="55" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="53" t="s">
         <v>111</v>
       </c>
       <c r="E4" s="56" t="s">
@@ -10990,9 +11220,9 @@
       <c r="A5" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="55" t="s">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="53" t="s">
@@ -11006,8 +11236,8 @@
       <c r="A6" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="55" t="s">
         <v>113</v>
       </c>
@@ -11020,8 +11250,8 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="54"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="53" t="s">
         <v>114</v>
       </c>
@@ -11032,8 +11262,8 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="54"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="55" t="s">
         <v>115</v>
       </c>
@@ -11044,8 +11274,8 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="54"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="57" t="s">
         <v>116</v>
       </c>
@@ -11056,10 +11286,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="54"/>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="78" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="53" t="s">
@@ -11072,8 +11302,8 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="54"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="59" t="s">
         <v>122</v>
       </c>
@@ -11084,8 +11314,8 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="54"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="60" t="s">
         <v>123</v>
       </c>
@@ -11094,10 +11324,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="54"/>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="78" t="s">
         <v>127</v>
       </c>
       <c r="D13" s="62" t="s">
@@ -11110,8 +11340,8 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="54"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="62" t="s">
         <v>129</v>
       </c>
@@ -11122,8 +11352,8 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="54"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="62" t="s">
         <v>130</v>
       </c>
@@ -11134,8 +11364,8 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="54"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="62" t="s">
         <v>131</v>
       </c>
@@ -11146,8 +11376,8 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="54"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="62" t="s">
         <v>132</v>
       </c>
@@ -11158,8 +11388,8 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="54"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="63" t="s">
         <v>133</v>
       </c>
@@ -11170,8 +11400,8 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="54"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="62" t="s">
         <v>134</v>
       </c>
@@ -11182,8 +11412,8 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="54"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62" t="s">
         <v>217</v>
@@ -11194,16 +11424,16 @@
       <c r="A21" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="78" t="s">
         <v>145</v>
       </c>
       <c r="D21" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="78" t="s">
         <v>149</v>
       </c>
       <c r="F21" s="47"/>
@@ -11212,66 +11442,66 @@
       <c r="A22" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="78"/>
+      <c r="E22" s="79"/>
       <c r="F22" s="47"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="64"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="79"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="64"/>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="78" t="s">
         <v>150</v>
       </c>
       <c r="D24" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="77" t="s">
+      <c r="E24" s="78" t="s">
         <v>149</v>
       </c>
       <c r="F24" s="47"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="64"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="78"/>
+      <c r="E25" s="79"/>
       <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="64"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="79"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="47"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="64"/>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="78" t="s">
         <v>155</v>
       </c>
       <c r="D27" s="65" t="s">
@@ -11284,8 +11514,8 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="64"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="65"/>
       <c r="E28" s="67" t="s">
         <v>158</v>
@@ -11294,8 +11524,8 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="64"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="65"/>
       <c r="E29" s="67" t="s">
         <v>219</v>
@@ -11304,8 +11534,8 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="64"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="65"/>
       <c r="E30" s="65" t="s">
         <v>159</v>
@@ -11314,8 +11544,8 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="64"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="65"/>
       <c r="E31" s="66" t="s">
         <v>160</v>
@@ -11323,8 +11553,8 @@
       <c r="F31" s="47"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="81"/>
-      <c r="B32" s="77" t="s">
+      <c r="A32" s="84"/>
+      <c r="B32" s="78" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="65" t="s">
@@ -11333,92 +11563,92 @@
       <c r="D32" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="77" t="s">
+      <c r="E32" s="78" t="s">
         <v>149</v>
       </c>
       <c r="F32" s="47"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="80"/>
-      <c r="B33" s="78"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="65" t="s">
         <v>163</v>
       </c>
       <c r="D33" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="78"/>
+      <c r="E33" s="79"/>
       <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="80"/>
-      <c r="B34" s="78"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="65" t="s">
         <v>164</v>
       </c>
       <c r="D34" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="78"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="47"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="80"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="66"/>
       <c r="D35" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="79"/>
+      <c r="E35" s="80"/>
       <c r="F35" s="47"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="77" t="s">
+      <c r="C36" s="78" t="s">
         <v>171</v>
       </c>
       <c r="D36" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="77" t="s">
+      <c r="E36" s="78" t="s">
         <v>149</v>
       </c>
       <c r="F36" s="47"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="80"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="E37" s="78"/>
+      <c r="E37" s="79"/>
       <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="80"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
       <c r="D38" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="E38" s="79"/>
+      <c r="E38" s="80"/>
       <c r="F38" s="47"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="80"/>
-      <c r="B39" s="77" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="78" t="s">
         <v>175</v>
       </c>
       <c r="C39" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="78" t="s">
         <v>214</v>
       </c>
       <c r="E39" s="65" t="s">
@@ -11427,32 +11657,32 @@
       <c r="F39" s="47"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="80"/>
-      <c r="B40" s="78"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="78"/>
+      <c r="D40" s="79"/>
       <c r="E40" s="65" t="s">
         <v>178</v>
       </c>
       <c r="F40" s="47"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="80"/>
-      <c r="B41" s="78"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="79"/>
       <c r="C41" s="65"/>
-      <c r="D41" s="78"/>
+      <c r="D41" s="79"/>
       <c r="E41" s="65" t="s">
         <v>179</v>
       </c>
       <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="80"/>
-      <c r="B42" s="79"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="66"/>
-      <c r="D42" s="79"/>
+      <c r="D42" s="80"/>
       <c r="E42" s="65" t="s">
         <v>215</v>
       </c>
@@ -11489,12 +11719,12 @@
       <c r="F44" s="47"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="80"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77" t="s">
+      <c r="A45" s="83"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="78" t="s">
         <v>149</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -11503,10 +11733,10 @@
       <c r="F45" s="47"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="80"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
       <c r="E46" s="65" t="s">
         <v>187</v>
       </c>
@@ -11530,10 +11760,10 @@
       <c r="A48" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="77" t="s">
+      <c r="C48" s="78" t="s">
         <v>194</v>
       </c>
       <c r="D48" s="65" t="s">
@@ -11546,8 +11776,8 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="69"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
       <c r="D49" s="65" t="s">
         <v>196</v>
       </c>
@@ -11556,8 +11786,8 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="69"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
       <c r="D50" s="66" t="s">
         <v>197</v>
       </c>
@@ -11580,10 +11810,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="69"/>
-      <c r="B52" s="77" t="s">
+      <c r="B52" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="77" t="s">
+      <c r="C52" s="78" t="s">
         <v>189</v>
       </c>
       <c r="D52" s="65" t="s">
@@ -11596,8 +11826,8 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="69"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
       <c r="D53" s="65" t="s">
         <v>201</v>
       </c>
@@ -11606,17 +11836,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:C38"/>
@@ -11628,17 +11858,17 @@
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="0" windowWidth="15660" windowHeight="15600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="老计划（废弃）" sheetId="1" r:id="rId1"/>
     <sheet name="新计划" sheetId="3" r:id="rId2"/>
-    <sheet name="学科分类(听力+阅读)" sheetId="4" r:id="rId3"/>
+    <sheet name="5.30号计划" sheetId="5" r:id="rId3"/>
+    <sheet name="学科分类(听力+阅读)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="278">
   <si>
     <t>Week1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -292,10 +293,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>(艺术家)1-2、3-3、9-2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>4.28(周日)</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -344,10 +341,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>(地质学)3-2、4-3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>(地质学)4-3、5-3</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -384,10 +377,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(文化)4-3、5-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(文化)6-5、7-5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -397,38 +386,6 @@
   </si>
   <si>
     <t>(文化)1-5、5-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(文化)7-3、8-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(理科)2-2、10-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(理科)8-3、6-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(艺术)10-1、5-2(文化)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(艺术)3-5、2-5(文化)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(文化)6-2、2-6(理科)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(文化)9-1、7-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(文化)10-3、6-1(理科)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -820,10 +777,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>场景6：背+做</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>4.29（week3）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -893,10 +846,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>场景4：做</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>第二轮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -906,10 +855,6 @@
   </si>
   <si>
     <t>5.6（week4）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.10hao</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -970,6 +915,206 @@
   </si>
   <si>
     <t>生物学2-2：背单词/逐句精析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2次课-5.13号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景6：背+做</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景4：做</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、听力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(地质学)3-2、4-3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>(艺术家)9-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(艺术家)1-2、3-3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>(艺术)3-5、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(文化)5-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(文化)2-5、4-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(理科)6-1、6-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(理科)8-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(艺术)10-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(文化)5-2、8-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(文化)8-1、9-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(文化)7-2、10-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(理科)2-2、10-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(理科)2-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(文化)6-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic6-总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic7-背表达+做题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic7-总结复习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic7-总结复习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic7-作文1篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic7-口语5到6个题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic5-总结复习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic5-作文1篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic6-作文1篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic6-总结复习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic6-总结复习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic5-口语5到6个题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic5-总结复习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic4-作文1篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic4-总结复习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic3-作文1篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic3-总结复习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic2-作文1篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic1-总结复习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic2-总结复习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic1-作文1篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic6-口语5到6个题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic4-口语5到6个题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic3-总结复习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic3-口语5到6个题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic2-口语5到6个题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic1-口语5到6个题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -980,7 +1125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1086,12 +1231,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFE26B0A"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1293,7 +1432,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4216">
+  <cellStyleXfs count="4608">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -5512,8 +5651,400 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5593,7 +6124,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5609,23 +6139,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="1759" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5660,13 +6178,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5681,7 +6193,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5717,12 +6229,23 @@
     <xf numFmtId="58" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5746,7 +6269,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4216">
+  <cellStyles count="4608">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -7854,6 +8377,202 @@
     <cellStyle name="超链接" xfId="4210" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4212" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4606" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -9960,6 +10679,202 @@
     <cellStyle name="访问过的超链接" xfId="4211" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4213" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4607" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -10292,7 +11207,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
@@ -10542,7 +11457,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="76">
+      <c r="A19" s="73">
         <v>4.1900000000000004</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -10556,7 +11471,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="76"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="25" t="s">
         <v>40</v>
       </c>
@@ -10564,7 +11479,7 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="76"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
@@ -10576,7 +11491,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="76"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="19" t="s">
         <v>41</v>
       </c>
@@ -10600,7 +11515,7 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="76">
+      <c r="A25" s="73">
         <v>4.24</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -10609,7 +11524,7 @@
       <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="76"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="18" t="s">
         <v>46</v>
       </c>
@@ -10618,14 +11533,14 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="76"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="76"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="15" t="s">
         <v>47</v>
       </c>
@@ -10635,10 +11550,15 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="9" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>225</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -10660,35 +11580,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A2:F48"/>
+  <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="42" customWidth="1"/>
+    <col min="2" max="3" width="21.28515625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="42" customWidth="1"/>
+    <col min="5" max="5" width="21" style="42" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" style="42" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="27"/>
       <c r="B2" s="29" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>50</v>
@@ -10696,7 +11616,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -10706,12 +11626,12 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="36" t="s">
-        <v>72</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="32"/>
@@ -10720,13 +11640,13 @@
       <c r="A5" s="27">
         <v>4.17</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>67</v>
-      </c>
+      <c r="B5" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
     </row>
@@ -10734,30 +11654,30 @@
       <c r="A6" s="27">
         <v>4.18</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>92</v>
+      <c r="B6" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -10766,42 +11686,42 @@
       <c r="A8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="32"/>
       <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>65</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>90</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -10810,14 +11730,14 @@
       <c r="A12" s="27">
         <v>4.25</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>71</v>
+      <c r="B12" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
@@ -10826,14 +11746,14 @@
       <c r="A13" s="27">
         <v>4.26</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>96</v>
+      <c r="B13" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -10842,63 +11762,63 @@
       <c r="A14" s="27">
         <v>4.2699999999999996</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>97</v>
+      <c r="B14" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>204</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>197</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="51">
       <c r="A16" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>237</v>
+        <v>199</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>223</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
+      <c r="A17" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" ht="34">
-      <c r="A18" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="37" t="s">
+        <v>210</v>
+      </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
     </row>
@@ -10906,8 +11826,8 @@
       <c r="A19" s="27">
         <v>5.4</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>231</v>
+      <c r="D19" s="70" t="s">
+        <v>217</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -10916,29 +11836,29 @@
       <c r="A20" s="27">
         <v>5.5</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>239</v>
+      <c r="B20" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>218</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>241</v>
-      </c>
+      <c r="C21" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
     </row>
@@ -10955,12 +11875,12 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="35" t="s">
-        <v>227</v>
+      <c r="A24" s="34">
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="35">
+      <c r="A25" s="34">
         <v>5.1100000000000003</v>
       </c>
     </row>
@@ -10971,159 +11891,73 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="31" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="35">
+      <c r="A28" s="34">
         <v>5.14</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="35">
+      <c r="A29" s="34">
         <v>5.15</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="35">
+      <c r="A30" s="34">
         <v>5.16</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="35">
+      <c r="A31" s="34">
         <v>5.17</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="35">
+      <c r="A32" s="34">
         <v>5.18</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="35">
+      <c r="A33" s="34">
         <v>5.19</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="75" t="s">
-        <v>229</v>
+      <c r="A34" s="71" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="B36" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>68</v>
+      <c r="D36" s="36" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="B37" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>69</v>
+      <c r="D37" s="36" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>70</v>
+      <c r="D38" s="36" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="C40" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="C41" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="C42" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="C43" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="C44" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="C45" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="C46" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="C47" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="C48" t="s">
-        <v>83</v>
-      </c>
+      <c r="D39" s="36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B17:D17"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11137,11 +11971,323 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27"/>
+      <c r="B2" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="42">
+        <v>5.31</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="42">
+        <v>6.1</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="42">
+        <v>6.2</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="42">
+        <v>6.3</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="42">
+        <v>6.4</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="42">
+        <v>6.5</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="42">
+        <v>6.6</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="42">
+        <v>6.7</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="42">
+        <v>6.8</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="42">
+        <v>6.9</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="42">
+        <v>6.11</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="42">
+        <v>6.12</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="42">
+        <v>6.13</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="42">
+        <v>6.14</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="42">
+        <v>6.15</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E19" sqref="E5:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -11153,686 +12299,686 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:6" ht="17" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="42"/>
+    </row>
+    <row r="3" spans="1:6" ht="22">
+      <c r="A3" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E3" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="E4" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="E5" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="E6" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="49"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:6" ht="22">
-      <c r="A3" s="52" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="49"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="49"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="49"/>
+      <c r="B10" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C10" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D10" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E10" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="49"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="49"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="49"/>
+      <c r="B13" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" s="47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="53" t="s">
+      <c r="E13" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="49"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="54"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="54"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="54"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="54"/>
-      <c r="B10" s="78" t="s">
+      <c r="E14" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="49"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="E15" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="49"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="E16" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="42"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="49"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="54"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="59" t="s">
+      <c r="E17" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="42"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="49"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="47"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="54"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="60" t="s">
+      <c r="E18" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="49"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="47"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="54"/>
-      <c r="B13" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="62" t="s">
+      <c r="E19" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="49"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="47"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="54"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="62" t="s">
+      <c r="E21" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="1:6" ht="34">
+      <c r="A22" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="47"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="54"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="62" t="s">
+      <c r="E22" s="75"/>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="57"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="47"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="54"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="62" t="s">
+      <c r="E23" s="76"/>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="57"/>
+      <c r="B24" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="47"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="54"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="47"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="54"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="47"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="54"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="62" t="s">
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="57"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="47"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="54"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="47"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="64" t="s">
+      <c r="E25" s="75"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="57"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="E26" s="76"/>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="57"/>
+      <c r="B27" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="D27" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="E27" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="57"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="57"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="57"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="42"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="57"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="47"/>
-    </row>
-    <row r="22" spans="1:6" ht="34">
-      <c r="A22" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="47"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="64"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="47"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="64"/>
-      <c r="B24" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="78" t="s">
+      <c r="F31" s="42"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="80"/>
+      <c r="B32" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="C32" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="47"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="64"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="65" t="s">
+      <c r="D32" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="42"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="79"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="47"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="64"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="66" t="s">
+      <c r="D33" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="75"/>
+      <c r="F33" s="42"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="79"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="47"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="64"/>
-      <c r="B27" s="78" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="65" t="s">
+      <c r="D34" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E34" s="75"/>
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="79"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="F27" s="47"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="64"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="67" t="s">
+      <c r="E35" s="76"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="F28" s="47"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="64"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="F29" s="47"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="64"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65" t="s">
+      <c r="B36" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="47"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="64"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66" t="s">
+      <c r="C36" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="47"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="84"/>
-      <c r="B32" s="78" t="s">
+      <c r="D36" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="E36" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="79"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="E37" s="75"/>
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="79"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="76"/>
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="79"/>
+      <c r="B39" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" s="47"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="83"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="65" t="s">
+      <c r="D39" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="42"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="79"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="79"/>
-      <c r="F33" s="47"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="83"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="65" t="s">
+      <c r="D40" s="75"/>
+      <c r="E40" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="47"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="83"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66" t="s">
+      <c r="F40" s="42"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="79"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="E35" s="80"/>
-      <c r="F35" s="47"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="83" t="s">
+      <c r="F41" s="42"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="79"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" s="42"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="57"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="D43" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="E43" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="42"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="57"/>
+      <c r="B44" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="65" t="s">
+      <c r="C44" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="47"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="83"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="65" t="s">
+      <c r="D44" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="47"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="83"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="66" t="s">
+      <c r="E44" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="42"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="79"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="E38" s="80"/>
-      <c r="F38" s="47"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="83"/>
-      <c r="B39" s="78" t="s">
+      <c r="D45" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="F45" s="42"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="79"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="E39" s="65" t="s">
-        <v>216</v>
-      </c>
-      <c r="F39" s="47"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="83"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="65" t="s">
+      <c r="F46" s="42"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="65" t="s">
+      <c r="B47" s="63"/>
+      <c r="C47" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="63"/>
+      <c r="E47" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="42"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="42"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="62"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="65"/>
+      <c r="F49" s="42"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="62"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="E50" s="66"/>
+      <c r="F50" s="42"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="62"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="42"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="62"/>
+      <c r="B52" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="47"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="83"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="F41" s="47"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="83"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="65" t="s">
-        <v>215</v>
-      </c>
-      <c r="F42" s="47"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="64"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="D43" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" s="47"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="64"/>
-      <c r="B44" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="D44" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="47"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="83"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" s="47"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="83"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="F46" s="47"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="F47" s="47"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="69" t="s">
+      <c r="D52" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="42"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="62"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="B48" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C48" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="D48" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="E48" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="F48" s="47"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="69"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="47"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="69"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="E50" s="73"/>
-      <c r="F50" s="47"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="69"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="F51" s="47"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="69"/>
-      <c r="B52" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="D52" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="E52" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="F52" s="47"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="69"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="E53" s="65"/>
-      <c r="F53" s="47"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="33">

--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="老计划（废弃）" sheetId="1" r:id="rId1"/>
+    <sheet name="老计划" sheetId="1" r:id="rId1"/>
     <sheet name="新计划" sheetId="3" r:id="rId2"/>
-    <sheet name="5.30号计划" sheetId="5" r:id="rId3"/>
-    <sheet name="学科分类(听力+阅读)" sheetId="4" r:id="rId4"/>
+    <sheet name="学科分类(听力+阅读)" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="233">
   <si>
     <t>Week1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -281,26 +281,10 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>(地质学)1-3、4-5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>(地质学)5-5、6-6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>(地质学)7-6、9-5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>4.28(周日)</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>(地质学)8-2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>基础训练-基本句型</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -341,14 +325,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>(地质学)4-3、5-3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>(地质学)6-2、7-1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>(环境生态)3-3、4-1</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -362,30 +338,6 @@
   </si>
   <si>
     <t>(环境生态)9-3(补漏)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(艺术)7-2、8-3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>(艺术)9-2、4-6</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>(艺术)3-1、4-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(文化)6-5、7-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(文化)8-5、10-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(文化)1-5、5-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -416,10 +368,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(艺术)1-2、2-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>基础训练-场景1（复习）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -502,12 +450,6 @@
     <t>环境生态学</t>
   </si>
   <si>
-    <t>3-2蜂鸟，</t>
-  </si>
-  <si>
-    <t>9-3苔原灌木，</t>
-  </si>
-  <si>
     <t>10-5磷循环，</t>
   </si>
   <si>
@@ -568,9 +510,6 @@
     <t>二、</t>
   </si>
   <si>
-    <t>艺术类讲座</t>
-  </si>
-  <si>
     <t>3+0</t>
   </si>
   <si>
@@ -578,12 +517,6 @@
   </si>
   <si>
     <t>1-2Rose Frantzen画家，</t>
-  </si>
-  <si>
-    <t>3-3Jean Painlevé电影制作者，</t>
-  </si>
-  <si>
-    <t>9-2 Loutherbourg布景师，</t>
   </si>
   <si>
     <t>无</t>
@@ -866,10 +799,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TPO1-10（40篇）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>场景3：完成练习；
 场景2：复习表达+完成作文</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -922,10 +851,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6.1o</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>场景6：背+做</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -934,187 +859,87 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>3、作文</t>
+    <t>听力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、听力</t>
+    <t>阅读</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2、阅读</t>
+    <t>作文</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.3o</t>
+    <t>按学科</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(地质学)3-2、4-3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>(艺术家)9-2</t>
+    <t>按话题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(艺术家)1-2、3-3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>(艺术)3-5、</t>
+    <t>口语（非独立）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(文化)5-6</t>
+    <t>作文（非独立）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(文化)2-5、4-3</t>
+    <t>TPO顺序</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(理科)6-1、6-3</t>
+    <t>TPO顺序</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(理科)8-3</t>
+    <t>口语/作文（独立）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(艺术)10-1</t>
+    <t>阅读</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(文化)5-2、8-1</t>
+    <t>听力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(文化)8-1、9-1</t>
+    <t>口语</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(文化)7-2、10-3</t>
+    <t>9-3苔原灌木，</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(理科)2-2、10-6</t>
+    <t>3-2蜂鸟，</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(理科)2-6</t>
+    <t>TPO1-Task3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(文化)6-2</t>
+    <t>TPO3-2、9-3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>topic6-总结</t>
+    <t>TPO 1-5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>topic7-背表达+做题</t>
+    <t>TPO6-10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>topic7-总结复习</t>
+    <t>3-3Jean Painlevé电影制作者，</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>topic7-总结复习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic7-作文1篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic7-口语5到6个题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic5-总结复习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic5-作文1篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic6-作文1篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic6-总结复习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic6-总结复习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic5-口语5到6个题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic5-总结复习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic4-作文1篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic4-总结复习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic3-作文1篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic3-总结复习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic2-作文1篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic1-总结复习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic2-总结复习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic1-作文1篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic6-口语5到6个题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic4-口语5到6个题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic3-总结复习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic3-口语5到6个题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic2-口语5到6个题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>topic1-口语5到6个题</t>
+    <t>9-2 Loutherbourg布景师，</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1244,7 +1069,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1299,7 +1123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1307,132 +1131,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4608">
+  <cellStyleXfs count="4992">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -6043,8 +5743,392 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6139,12 +6223,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1759" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="1759" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6153,81 +6231,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6244,32 +6247,79 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1759" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4608">
+  <cellStyles count="4992">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -8573,6 +8623,198 @@
     <cellStyle name="超链接" xfId="4602" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4604" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4764" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4766" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4768" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4770" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4772" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4786" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4794" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4796" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4798" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4810" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4812" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4814" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4816" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4818" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4820" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4822" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4824" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4826" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4828" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4830" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4832" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4834" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4836" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4838" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4840" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4842" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4844" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4846" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4848" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4850" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4852" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4854" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4856" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4858" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4860" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4862" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4864" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4866" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4868" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4870" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4872" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4874" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4876" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4878" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4880" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4882" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4884" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4886" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4888" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4890" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4892" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4894" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4896" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4898" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4900" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4902" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4904" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4906" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4908" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4910" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4912" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4914" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4916" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4918" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4920" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4922" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4924" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4926" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4928" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4930" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4932" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4934" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4936" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4938" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4940" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4942" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4944" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4946" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4948" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4950" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4952" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4954" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4956" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4958" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4960" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4962" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4964" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4966" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4968" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4970" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4972" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4974" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4976" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4978" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4980" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4982" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4984" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4986" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4988" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4990" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -10875,6 +11117,198 @@
     <cellStyle name="访问过的超链接" xfId="4603" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4605" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4771" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4795" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4797" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4799" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4811" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4813" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4815" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4817" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4819" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4821" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4823" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4825" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4827" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4829" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4831" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4833" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4835" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4837" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4839" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4841" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4843" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4845" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4847" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4849" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4851" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4853" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4855" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4857" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4859" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4861" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4863" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4865" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4867" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4869" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4871" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4873" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4875" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4877" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4879" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4881" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4883" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4885" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4887" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4889" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4891" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4893" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4895" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4897" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4899" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4901" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4903" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4905" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4907" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4909" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4911" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4913" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4915" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4917" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4919" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4921" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4923" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4925" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4927" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4929" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4931" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4933" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4935" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4937" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4939" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4941" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4943" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4945" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4947" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4949" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4951" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4953" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4955" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4957" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4959" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4961" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4963" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4965" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4967" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4969" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4971" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4973" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4975" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4977" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4979" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4981" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4983" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4985" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4987" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4989" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4991" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -11209,8 +11643,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -11457,7 +11891,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="73">
+      <c r="A19" s="48">
         <v>4.1900000000000004</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -11471,7 +11905,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="73"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="25" t="s">
         <v>40</v>
       </c>
@@ -11479,7 +11913,7 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="73"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
@@ -11491,7 +11925,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="73"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="19" t="s">
         <v>41</v>
       </c>
@@ -11515,7 +11949,7 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="73">
+      <c r="A25" s="48">
         <v>4.24</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -11524,7 +11958,7 @@
       <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="73"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="18" t="s">
         <v>46</v>
       </c>
@@ -11533,14 +11967,14 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="73"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="73"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="15" t="s">
         <v>47</v>
       </c>
@@ -11550,15 +11984,15 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="9" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="9" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -11582,33 +12016,33 @@
   <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="42" customWidth="1"/>
-    <col min="2" max="3" width="21.28515625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="42" customWidth="1"/>
-    <col min="5" max="5" width="21" style="42" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" style="42" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="42"/>
+    <col min="1" max="1" width="12.140625" style="40" customWidth="1"/>
+    <col min="2" max="3" width="21.28515625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="21" style="40" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" style="40" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="40"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="27"/>
       <c r="B2" s="29" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>50</v>
@@ -11616,7 +12050,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -11626,10 +12060,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -11641,10 +12075,10 @@
         <v>4.17</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -11655,29 +12089,29 @@
         <v>4.18</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -11686,9 +12120,9 @@
       <c r="A8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
     </row>
@@ -11702,7 +12136,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="32"/>
@@ -11712,16 +12146,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -11730,14 +12164,14 @@
       <c r="A12" s="27">
         <v>4.25</v>
       </c>
-      <c r="B12" s="68" t="s">
-        <v>194</v>
+      <c r="B12" s="41" t="s">
+        <v>176</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
@@ -11746,14 +12180,14 @@
       <c r="A13" s="27">
         <v>4.26</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>195</v>
+      <c r="B13" s="41" t="s">
+        <v>177</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -11762,62 +12196,62 @@
       <c r="A14" s="27">
         <v>4.2699999999999996</v>
       </c>
-      <c r="B14" s="68" t="s">
-        <v>191</v>
+      <c r="B14" s="41" t="s">
+        <v>173</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>192</v>
+        <v>52</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>174</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="51">
       <c r="A16" s="31" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
+      <c r="A17" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" ht="34">
-      <c r="A18" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
+      <c r="A18" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="37" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -11826,8 +12260,8 @@
       <c r="A19" s="27">
         <v>5.4</v>
       </c>
-      <c r="D19" s="70" t="s">
-        <v>217</v>
+      <c r="D19" s="43" t="s">
+        <v>198</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -11837,26 +12271,26 @@
         <v>5.5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="70" t="s">
-        <v>218</v>
+        <v>206</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>199</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="31" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="27"/>
@@ -11866,6 +12300,9 @@
       <c r="A22" s="27">
         <v>5.8</v>
       </c>
+      <c r="D22" s="36" t="s">
+        <v>211</v>
+      </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
     </row>
@@ -11873,16 +12310,25 @@
       <c r="A23" s="32">
         <v>5.9</v>
       </c>
+      <c r="D23" s="36" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="34">
         <v>5.0999999999999996</v>
       </c>
+      <c r="D24" s="36" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="34">
         <v>5.1100000000000003</v>
       </c>
+      <c r="D25" s="36" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="29">
@@ -11891,7 +12337,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="31" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -11919,40 +12365,18 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:1">
       <c r="A33" s="34">
         <v>5.19</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="D36" s="36" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="D37" s="36" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="D38" s="36" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="D39" s="36" t="s">
-        <v>196</v>
+    <row r="34" spans="1:1">
+      <c r="A34" s="44" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="6:6">
-      <c r="F50" s="32" t="s">
-        <v>50</v>
-      </c>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="32"/>
@@ -11971,305 +12395,750 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E19"/>
+  <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" style="49"/>
+    <col min="3" max="3" width="13.85546875" style="49" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="30" style="49" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="49" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="49" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="29" t="s">
+    <row r="1" spans="1:8">
+      <c r="D1" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="70"/>
+      <c r="G1" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="70"/>
+    </row>
+    <row r="2" spans="1:8" ht="20">
+      <c r="A2" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22" customHeight="1">
+      <c r="A3" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" customHeight="1">
+      <c r="A4" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="51"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" customHeight="1">
+      <c r="A5" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="51"/>
+    </row>
+    <row r="6" spans="1:8" ht="17" customHeight="1">
+      <c r="A6" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="56"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1">
+      <c r="A8" s="56"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="58"/>
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1">
+      <c r="A9" s="56"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" customHeight="1">
+      <c r="A10" s="56"/>
+      <c r="B10" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1">
+      <c r="A11" s="56"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1">
+      <c r="A12" s="56"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="56"/>
+      <c r="B13" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1">
+      <c r="A14" s="56"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1">
+      <c r="A15" s="56"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1">
+      <c r="A16" s="56"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="67"/>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1">
+      <c r="A17" s="56"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="67"/>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1">
+      <c r="A18" s="56"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1">
+      <c r="A20" s="56"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="66" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1">
+      <c r="A21" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="51"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1">
+      <c r="A22" s="60"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1">
+      <c r="A23" s="60"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>222</v>
-      </c>
+      <c r="H23" s="67"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>251</v>
-      </c>
+    <row r="24" spans="1:8" ht="17" customHeight="1">
+      <c r="A24" s="60"/>
+      <c r="B24" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="51"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="42">
-        <v>5.31</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>256</v>
+    <row r="25" spans="1:8">
+      <c r="A25" s="60"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="61" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="42">
-        <v>6.1</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>254</v>
+    <row r="26" spans="1:8" ht="17" customHeight="1">
+      <c r="A26" s="60"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="61" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="42">
-        <v>6.2</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>272</v>
-      </c>
+    <row r="27" spans="1:8" ht="17" customHeight="1">
+      <c r="A27" s="60"/>
+      <c r="B27" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="51"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="42">
-        <v>6.3</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>261</v>
-      </c>
+    <row r="28" spans="1:8" ht="17" customHeight="1">
+      <c r="A28" s="60"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="51"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="42">
-        <v>6.4</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>262</v>
-      </c>
+    <row r="29" spans="1:8">
+      <c r="A29" s="60"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="51"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="42">
-        <v>6.5</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>257</v>
-      </c>
+    <row r="30" spans="1:8" ht="17" customHeight="1">
+      <c r="A30" s="60"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="51"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="42">
-        <v>6.6</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>273</v>
+    <row r="31" spans="1:8" ht="17" customHeight="1">
+      <c r="A31" s="60"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="61"/>
+      <c r="F31" s="51"/>
+      <c r="H31" s="61" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="42">
-        <v>6.7</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>265</v>
-      </c>
+    <row r="32" spans="1:8" ht="17" customHeight="1">
+      <c r="A32" s="63"/>
+      <c r="B32" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="51"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="42">
-        <v>6.8</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>275</v>
-      </c>
+    <row r="33" spans="1:8">
+      <c r="A33" s="63"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="54"/>
+      <c r="F33" s="51"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="42">
-        <v>6.9</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>274</v>
-      </c>
+    <row r="34" spans="1:8" ht="17" customHeight="1">
+      <c r="A34" s="63"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="54"/>
+      <c r="F34" s="51"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>276</v>
+    <row r="35" spans="1:8" ht="17" customHeight="1">
+      <c r="A35" s="63"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="61"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="61" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="42">
-        <v>6.11</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>270</v>
+    <row r="36" spans="1:8" ht="17" customHeight="1">
+      <c r="A36" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="61" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="42">
-        <v>6.12</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>277</v>
+    <row r="37" spans="1:8" ht="17" customHeight="1">
+      <c r="A37" s="63"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="61" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="42">
-        <v>6.13</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>269</v>
+    <row r="38" spans="1:8" ht="17" customHeight="1">
+      <c r="A38" s="63"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="61" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="42">
-        <v>6.14</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+    <row r="39" spans="1:8" ht="17" customHeight="1">
+      <c r="A39" s="63"/>
+      <c r="B39" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="51"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="42">
-        <v>6.15</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+    <row r="40" spans="1:8" ht="17" customHeight="1">
+      <c r="A40" s="63"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="54"/>
+      <c r="F40" s="51"/>
+      <c r="H40" s="61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" customHeight="1">
+      <c r="A41" s="63"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="54"/>
+      <c r="F41" s="51"/>
+      <c r="H41" s="61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" customHeight="1">
+      <c r="A42" s="63"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="54"/>
+      <c r="F42" s="51"/>
+      <c r="H42" s="61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" customHeight="1">
+      <c r="A43" s="60"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="51"/>
+    </row>
+    <row r="44" spans="1:8" ht="17" customHeight="1">
+      <c r="A44" s="60"/>
+      <c r="B44" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="51"/>
+      <c r="G44" s="61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" customHeight="1">
+      <c r="A45" s="63"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="51"/>
+      <c r="H45" s="61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" customHeight="1">
+      <c r="A46" s="63"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="F46" s="51"/>
+      <c r="H46" s="61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" customHeight="1">
+      <c r="A47" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="61"/>
+      <c r="F47" s="51"/>
+      <c r="H47" s="62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" customHeight="1">
+      <c r="A48" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" s="51"/>
+      <c r="H48" s="61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" customHeight="1">
+      <c r="A49" s="64"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" s="51"/>
+      <c r="H49" s="61"/>
+    </row>
+    <row r="50" spans="1:8" ht="17" customHeight="1">
+      <c r="A50" s="64"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="51"/>
+      <c r="H50" s="61"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="64"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="51"/>
+      <c r="H51" s="61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" customHeight="1">
+      <c r="A52" s="64"/>
+      <c r="B52" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="51"/>
+      <c r="H52" s="61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" customHeight="1">
+      <c r="A53" s="64"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="61" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -12283,739 +13152,87 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E5:E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="40" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="40"/>
+    <col min="8" max="8" width="15.85546875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="42"/>
+    <row r="1" spans="1:9">
+      <c r="B1" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="77" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="40">
+        <v>6.12</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="H3" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="42"/>
     </row>
-    <row r="3" spans="1:6" ht="22">
-      <c r="A3" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="42">
-        <v>1</v>
+    <row r="4" spans="1:9">
+      <c r="H4" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="49"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="49"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="49"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="49"/>
-      <c r="B10" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="42"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="49"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="42"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="49"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="42"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="49"/>
-      <c r="B13" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="42"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="49"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="42"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="49"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="42"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="49"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="42"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="49"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="42"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="49"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="42"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="49"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="42"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="49"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="F20" s="42"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="42"/>
-    </row>
-    <row r="22" spans="1:6" ht="34">
-      <c r="A22" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="42"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="57"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="42"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="57"/>
-      <c r="B24" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="42"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="57"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="42"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="57"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="42"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="57"/>
-      <c r="B27" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="42"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="57"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="42"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="57"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="F29" s="42"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="57"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="42"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="57"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="F31" s="42"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="80"/>
-      <c r="B32" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="42"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="79"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="42"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="79"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="42"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="79"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="76"/>
-      <c r="F35" s="42"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="42"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="79"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E37" s="75"/>
-      <c r="F37" s="42"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="79"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="42"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="79"/>
-      <c r="B39" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="74" t="s">
-        <v>202</v>
-      </c>
-      <c r="E39" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="F39" s="42"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="79"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="75"/>
-      <c r="E40" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" s="42"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="79"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="42"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="79"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="F42" s="42"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="57"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="42"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="57"/>
-      <c r="B44" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="E44" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" s="42"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="79"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="D45" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="F45" s="42"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="79"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="F46" s="42"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="F47" s="42"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" s="42"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="62"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="65"/>
-      <c r="F49" s="42"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="62"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="42"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="62"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="D51" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="42"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="62"/>
-      <c r="B52" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="E52" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" s="42"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="62"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="42"/>
+    <row r="5" spans="1:9">
+      <c r="H5" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>220</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D2:E2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1320" yWindow="0" windowWidth="23720" windowHeight="15600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="老计划" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="247">
   <si>
     <t>Week1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -438,9 +438,6 @@
     <t>10-2鲸类进化，</t>
   </si>
   <si>
-    <t>1-3高山林木线，</t>
-  </si>
-  <si>
     <t>5-1矿物质和植物，</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
   </si>
   <si>
     <t>环境生态学</t>
-  </si>
-  <si>
-    <t>10-5磷循环，</t>
   </si>
   <si>
     <t>3-3生态系统长期稳定性，</t>
@@ -919,7 +913,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TPO1-Task3</t>
+    <t>TPO 1-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO6-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3Jean Painlevé电影制作者，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-2 Loutherbourg布景师，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3高山林木线，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRE数学</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -927,19 +941,120 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TPO 1-5</t>
+    <t>10-5磷循环，</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TPO6-10</t>
+    <t>TPO2-1，3-2，4-3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3-3Jean Painlevé电影制作者，</t>
+    <t>TPO5-3、2-3、3-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9-2 Loutherbourg布景师，</t>
+    <t>TPO10-5、1-3、4-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1章：做题+改错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1章：单词+知识点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2章：做题+改错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2章：单词+知识点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.12-7.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立作文1篇（topic7）
+TPO2-Task1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task3/5讲解;
+TPO1-Task3;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Topic7-表达复习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+TPO1-Task5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Task4/6讲解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+独立口语3篇（topic7）
+TPO1-Task4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Topic6-表达复习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+TPO1-Task6</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +1065,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1072,8 +1187,26 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1122,6 +1255,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1132,7 +1277,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4992">
+  <cellStyleXfs count="5748">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -6127,8 +6272,764 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6253,9 +7154,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6267,9 +7165,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6296,9 +7191,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6312,14 +7204,35 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4992">
+  <cellStyles count="5748">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -8815,6 +9728,384 @@
     <cellStyle name="超链接" xfId="4986" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4988" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4990" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4992" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4994" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4996" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4998" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5000" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5002" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5004" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5006" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5008" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5010" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5012" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5014" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5016" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5018" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5020" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5022" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5024" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5026" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5028" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5030" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5032" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5034" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5036" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5038" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5040" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5042" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5044" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5046" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5048" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5050" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5052" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5054" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5056" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5058" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5060" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5062" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5064" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5066" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5068" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5070" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5072" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5074" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5076" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5078" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5080" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5082" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5084" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5086" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5088" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5090" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5092" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5094" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5096" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5098" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5746" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -11309,6 +12600,384 @@
     <cellStyle name="访问过的超链接" xfId="4987" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4989" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4991" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4993" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4995" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4997" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4999" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5001" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5003" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5005" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5007" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5009" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5011" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5013" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5015" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5017" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5019" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5021" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5023" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5025" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5027" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5029" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5031" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5033" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5035" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5037" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5039" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5041" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5043" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5045" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5047" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5049" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5051" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5053" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5055" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5057" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5059" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5061" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5063" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5065" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5067" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5069" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5071" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5073" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5075" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5077" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5079" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5081" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5083" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5085" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5087" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5089" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5091" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5093" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5095" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5097" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5099" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5747" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -11891,7 +13560,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="48">
+      <c r="A19" s="67">
         <v>4.1900000000000004</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -11905,7 +13574,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="48"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="25" t="s">
         <v>40</v>
       </c>
@@ -11913,7 +13582,7 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="48"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
@@ -11925,7 +13594,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="48"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="19" t="s">
         <v>41</v>
       </c>
@@ -11949,7 +13618,7 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="48">
+      <c r="A25" s="67">
         <v>4.24</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -11958,7 +13627,7 @@
       <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="48"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="18" t="s">
         <v>46</v>
       </c>
@@ -11967,14 +13636,14 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="48"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="48"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="15" t="s">
         <v>47</v>
       </c>
@@ -11984,15 +13653,15 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -12033,16 +13702,16 @@
     <row r="2" spans="1:6">
       <c r="A2" s="27"/>
       <c r="B2" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>203</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>50</v>
@@ -12165,7 +13834,7 @@
         <v>4.25</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>63</v>
@@ -12181,7 +13850,7 @@
         <v>4.26</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>72</v>
@@ -12197,7 +13866,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>73</v>
@@ -12213,30 +13882,30 @@
         <v>52</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="51">
       <c r="A16" s="31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
@@ -12246,12 +13915,12 @@
     </row>
     <row r="18" spans="1:6" ht="34">
       <c r="A18" s="38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
       <c r="D18" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -12261,7 +13930,7 @@
         <v>5.4</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -12271,26 +13940,26 @@
         <v>5.5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="27"/>
@@ -12301,7 +13970,7 @@
         <v>5.8</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -12311,7 +13980,7 @@
         <v>5.9</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -12319,7 +13988,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -12327,7 +13996,7 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -12337,7 +14006,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -12372,7 +14041,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="6:6">
@@ -12398,708 +14067,709 @@
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="49"/>
-    <col min="3" max="3" width="13.85546875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="49" customWidth="1"/>
-    <col min="5" max="5" width="30" style="49" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="49" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="49" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="49" customWidth="1"/>
-    <col min="9" max="16384" width="10.7109375" style="49"/>
+    <col min="1" max="2" width="10.7109375" style="48"/>
+    <col min="3" max="3" width="13.85546875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="48" customWidth="1"/>
+    <col min="5" max="5" width="30" style="48" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="48" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="48" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="D1" s="70" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E1" s="70"/>
       <c r="G1" s="70" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:8" ht="20">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="50" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="49" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="51"/>
+      <c r="E3" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:8" ht="17" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="51"/>
+      <c r="E4" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:8" ht="17" customHeight="1">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="51"/>
+      <c r="E5" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:8" ht="17" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="51"/>
+      <c r="E6" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="56"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="51"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:8" ht="17" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="51"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="51"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:8" ht="17" customHeight="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="D10" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:8" ht="17" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="51"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:8" ht="17" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="51"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="57"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="56"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="51"/>
+      <c r="E13" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:8" ht="17" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="51"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="1:8" ht="17" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="51"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:8" ht="17" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="67"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="64"/>
     </row>
     <row r="17" spans="1:8" ht="17" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="67"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8" ht="17" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="66" t="s">
-        <v>114</v>
+      <c r="A18" s="54"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="63" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="66" t="s">
-        <v>115</v>
+      <c r="A19" s="54"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="63" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="66" t="s">
-        <v>187</v>
+      <c r="A20" s="54"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="63" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" customHeight="1">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="D21" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="E21" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="51"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="1:8" ht="17" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="71"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
     </row>
     <row r="23" spans="1:8" ht="17" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="H23" s="67"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="H23" s="64"/>
     </row>
     <row r="24" spans="1:8" ht="17" customHeight="1">
-      <c r="A24" s="60"/>
-      <c r="B24" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="54" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="51"/>
+      <c r="E24" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="60"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="61" t="s">
-        <v>123</v>
+      <c r="A25" s="58"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="59" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17" customHeight="1">
-      <c r="A26" s="60"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="61" t="s">
-        <v>124</v>
+      <c r="A26" s="58"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="59" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="E27" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="51"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="1:8" ht="17" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="51"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="60"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="F29" s="51"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="1:8" ht="17" customHeight="1">
-      <c r="A30" s="60"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="51"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="1:8" ht="17" customHeight="1">
-      <c r="A31" s="60"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="61"/>
-      <c r="F31" s="51"/>
-      <c r="H31" s="61" t="s">
-        <v>131</v>
+      <c r="A31" s="58"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="59"/>
+      <c r="F31" s="50"/>
+      <c r="H31" s="59" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="51"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="50"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="63"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="51"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="68"/>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="17" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="51"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="68"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:8" ht="17" customHeight="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="61"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="61" t="s">
-        <v>139</v>
+      <c r="A35" s="69"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="59"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="59" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" customHeight="1">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="E36" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="50"/>
+      <c r="G36" s="59" t="s">
         <v>141</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="61" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" customHeight="1">
-      <c r="A37" s="63"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="61" t="s">
-        <v>144</v>
+      <c r="A37" s="69"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="59" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" customHeight="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="61" t="s">
-        <v>145</v>
+      <c r="A38" s="69"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="59" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" customHeight="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="54" t="s">
+      <c r="A39" s="69"/>
+      <c r="B39" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="E39" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="F39" s="51"/>
+      <c r="F39" s="50"/>
     </row>
     <row r="40" spans="1:8" ht="17" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="54"/>
-      <c r="F40" s="51"/>
-      <c r="H40" s="61" t="s">
-        <v>149</v>
+      <c r="A40" s="69"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="68"/>
+      <c r="F40" s="50"/>
+      <c r="H40" s="59" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" customHeight="1">
-      <c r="A41" s="63"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="54"/>
-      <c r="F41" s="51"/>
-      <c r="H41" s="61" t="s">
-        <v>150</v>
+      <c r="A41" s="69"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="68"/>
+      <c r="F41" s="50"/>
+      <c r="H41" s="59" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="54"/>
-      <c r="F42" s="51"/>
-      <c r="H42" s="61" t="s">
-        <v>185</v>
+      <c r="A42" s="69"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="68"/>
+      <c r="F42" s="50"/>
+      <c r="H42" s="59" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" customHeight="1">
-      <c r="A43" s="60"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="51"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="50"/>
     </row>
     <row r="44" spans="1:8" ht="17" customHeight="1">
-      <c r="A44" s="60"/>
-      <c r="B44" s="61" t="s">
+      <c r="A44" s="58"/>
+      <c r="B44" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="50"/>
+      <c r="G44" s="59" t="s">
         <v>153</v>
-      </c>
-      <c r="C44" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="E44" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="F44" s="51"/>
-      <c r="G44" s="61" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" customHeight="1">
-      <c r="A45" s="63"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="51"/>
-      <c r="H45" s="61" t="s">
-        <v>157</v>
+      <c r="A45" s="69"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="50"/>
+      <c r="H45" s="59" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17" customHeight="1">
-      <c r="A46" s="63"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="F46" s="51"/>
-      <c r="H46" s="61" t="s">
-        <v>158</v>
+      <c r="A46" s="69"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="F46" s="50"/>
+      <c r="H46" s="59" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" customHeight="1">
-      <c r="A47" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="61"/>
-      <c r="F47" s="51"/>
-      <c r="H47" s="62" t="s">
-        <v>163</v>
+      <c r="A47" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="59"/>
+      <c r="F47" s="50"/>
+      <c r="H47" s="60" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" customHeight="1">
-      <c r="A48" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" s="54" t="s">
+      <c r="A48" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="F48" s="51"/>
-      <c r="H48" s="61" t="s">
-        <v>169</v>
+      <c r="F48" s="50"/>
+      <c r="H48" s="59" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" customHeight="1">
-      <c r="A49" s="64"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="F49" s="51"/>
-      <c r="H49" s="61"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" s="50"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:8" ht="17" customHeight="1">
-      <c r="A50" s="64"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" s="51"/>
-      <c r="H50" s="61"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="F50" s="50"/>
+      <c r="H50" s="59"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="64"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="F51" s="51"/>
-      <c r="H51" s="61" t="s">
-        <v>120</v>
+      <c r="A51" s="61"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="50"/>
+      <c r="H51" s="59" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17" customHeight="1">
-      <c r="A52" s="64"/>
-      <c r="B52" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" s="51"/>
-      <c r="H52" s="61" t="s">
-        <v>183</v>
+      <c r="A52" s="61"/>
+      <c r="B52" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="F52" s="50"/>
+      <c r="H52" s="59" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" customHeight="1">
-      <c r="A53" s="64"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="61" t="s">
-        <v>172</v>
+      <c r="A53" s="61"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="59" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -13152,84 +14822,182 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="10" style="40" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="40" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="40" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="40" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="40"/>
+    <col min="6" max="6" width="18.5703125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="40"/>
     <col min="8" max="8" width="15.85546875" style="40" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" style="40" customWidth="1"/>
     <col min="10" max="16384" width="10.7109375" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>212</v>
+      <c r="H1" s="66" t="s">
+        <v>210</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="40">
-        <v>6.12</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>213</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="H3" s="40" t="s">
-        <v>221</v>
+      <c r="H3" s="66" t="s">
+        <v>219</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="H4" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" s="47" t="s">
         <v>217</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="H5" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="47" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="73" t="s">
         <v>220</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34">
+      <c r="A7" s="40">
+        <v>6.12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="34">
+      <c r="A8" s="40">
+        <v>6.13</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51">
+      <c r="A9" s="40">
+        <v>6.14</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="D9" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="34">
+      <c r="A10" s="40">
+        <v>6.15</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="40">
+        <v>6.16</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="72">
+        <v>6.17</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="40">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="40">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="40">
+        <v>6.21</v>
       </c>
     </row>
   </sheetData>

--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="23720" windowHeight="15600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="3600" yWindow="0" windowWidth="19940" windowHeight="13980" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="老计划" sheetId="1" r:id="rId1"/>
@@ -981,11 +981,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>独立作文1篇（topic7）
-TPO2-Task1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Task3/5讲解;
 TPO1-Task3;</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -998,17 +993,41 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>Topic7-表达复习</t>
+      <t>Topic6-表达复习</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>独立口语3篇（topic7）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Topic7-表达复习
+独立作文:2篇(topic7+TPO1)-复习
+Task1: TPO1复习+</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-TPO1-Task5</t>
+      <t>TPO2</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1016,7 +1035,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -1030,30 +1049,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-独立口语3篇（topic7）
-TPO1-Task4</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Topic6-表达复习</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-TPO1-Task6</t>
+TPO1-Task5、4、6</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1277,7 +1273,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5748">
+  <cellStyleXfs count="5972">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3040,6 +3036,230 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7207,21 +7427,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7231,8 +7436,23 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5748">
+  <cellStyles count="5972">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -10106,6 +10326,118 @@
     <cellStyle name="超链接" xfId="5742" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5744" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5764" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5766" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5768" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5770" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5772" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5786" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5794" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5796" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5798" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5810" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5812" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5814" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5816" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5818" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5820" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5822" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5824" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5826" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5828" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5830" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5832" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5834" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5836" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5838" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5840" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5842" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5844" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5846" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5848" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5850" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5852" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5854" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5856" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5858" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5860" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5862" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5864" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5866" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5868" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5870" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5872" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5874" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5876" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5878" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5880" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5882" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5884" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5886" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5888" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5890" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5892" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5894" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5896" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5898" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5900" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5902" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5904" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5906" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5908" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5910" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5912" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5914" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5916" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5918" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5920" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5922" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5924" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5926" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5928" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5930" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5932" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5934" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5936" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5938" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5940" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5942" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5944" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5946" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5948" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5950" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5952" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5954" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5956" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5958" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5960" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5962" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5964" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5966" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5968" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5970" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -12978,6 +13310,118 @@
     <cellStyle name="访问过的超链接" xfId="5743" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5745" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5771" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5795" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5797" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5799" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5811" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5813" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5815" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5817" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5819" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5821" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5823" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5825" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5827" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5829" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5831" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5833" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5835" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5837" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5839" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5841" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5843" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5845" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5847" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5849" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5851" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5853" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5855" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5857" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5859" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5861" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5863" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5865" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5867" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5869" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5871" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5873" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5875" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5877" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5879" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5881" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5883" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5885" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5887" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5889" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5891" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5893" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5895" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5897" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5899" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5901" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5903" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5905" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5907" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5909" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5911" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5913" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5915" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5917" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5919" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5921" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5923" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5925" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5927" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5929" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5931" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5933" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5935" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5937" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5939" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5941" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5943" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5945" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5947" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5949" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5951" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5953" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5955" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5957" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5959" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5961" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5963" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5965" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5967" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5969" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5971" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -13560,7 +14004,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="67">
+      <c r="A19" s="70">
         <v>4.1900000000000004</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -13574,7 +14018,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="67"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="25" t="s">
         <v>40</v>
       </c>
@@ -13582,7 +14026,7 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="67"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
@@ -13594,7 +14038,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="67"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="19" t="s">
         <v>41</v>
       </c>
@@ -13618,7 +14062,7 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="67">
+      <c r="A25" s="70">
         <v>4.24</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -13627,7 +14071,7 @@
       <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="67"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="18" t="s">
         <v>46</v>
       </c>
@@ -13636,14 +14080,14 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="67"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="67"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="15" t="s">
         <v>47</v>
       </c>
@@ -14084,14 +14528,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="G1" s="70" t="s">
+      <c r="E1" s="71"/>
+      <c r="G1" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="20">
       <c r="A2" s="51" t="s">
@@ -14121,10 +14565,10 @@
       <c r="A3" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="72" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="53" t="s">
@@ -14139,8 +14583,8 @@
       <c r="A4" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="53" t="s">
         <v>87</v>
       </c>
@@ -14153,8 +14597,8 @@
       <c r="A5" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="53" t="s">
         <v>88</v>
       </c>
@@ -14167,8 +14611,8 @@
       <c r="A6" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="53" t="s">
         <v>89</v>
       </c>
@@ -14179,8 +14623,8 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="54"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="53" t="s">
         <v>90</v>
       </c>
@@ -14189,8 +14633,8 @@
     </row>
     <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="54"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="53" t="s">
         <v>91</v>
       </c>
@@ -14199,8 +14643,8 @@
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="54"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="53" t="s">
         <v>92</v>
       </c>
@@ -14209,10 +14653,10 @@
     </row>
     <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="54"/>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="72" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="53" t="s">
@@ -14225,8 +14669,8 @@
     </row>
     <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="54"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="53" t="s">
         <v>223</v>
       </c>
@@ -14237,8 +14681,8 @@
     </row>
     <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="54"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="57" t="s">
         <v>232</v>
       </c>
@@ -14248,10 +14692,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="54"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="72" t="s">
         <v>99</v>
       </c>
       <c r="D13" s="57" t="s">
@@ -14264,8 +14708,8 @@
     </row>
     <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="54"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="57" t="s">
         <v>101</v>
       </c>
@@ -14276,8 +14720,8 @@
     </row>
     <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="54"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="63" t="s">
         <v>102</v>
       </c>
@@ -14288,8 +14732,8 @@
     </row>
     <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="54"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="64"/>
       <c r="E16" s="57" t="s">
         <v>110</v>
@@ -14302,8 +14746,8 @@
     </row>
     <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="54"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="64"/>
       <c r="E17" s="63" t="s">
         <v>111</v>
@@ -14316,8 +14760,8 @@
     </row>
     <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="54"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
       <c r="F18" s="50"/>
@@ -14330,8 +14774,8 @@
     </row>
     <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="54"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="63" t="s">
         <v>106</v>
       </c>
@@ -14344,8 +14788,8 @@
     </row>
     <row r="20" spans="1:8" ht="17" customHeight="1">
       <c r="A20" s="54"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="63"/>
       <c r="E20" s="64"/>
       <c r="F20" s="50"/>
@@ -14358,16 +14802,16 @@
       <c r="A21" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="72" t="s">
         <v>116</v>
       </c>
       <c r="D21" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="73" t="s">
         <v>118</v>
       </c>
       <c r="F21" s="50"/>
@@ -14376,22 +14820,22 @@
     </row>
     <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="58"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="E22" s="71"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="50"/>
       <c r="G22" s="64"/>
       <c r="H22" s="64"/>
     </row>
     <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="58"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="64"/>
-      <c r="E23" s="71"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="50"/>
       <c r="G23" s="63" t="s">
         <v>228</v>
@@ -14400,25 +14844,25 @@
     </row>
     <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="58"/>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="72" t="s">
         <v>119</v>
       </c>
       <c r="D24" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="72" t="s">
         <v>118</v>
       </c>
       <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="58"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="E25" s="68"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="50"/>
       <c r="G25" s="59" t="s">
         <v>121</v>
@@ -14426,9 +14870,9 @@
     </row>
     <row r="26" spans="1:8" ht="17" customHeight="1">
       <c r="A26" s="58"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="E26" s="68"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="50"/>
       <c r="G26" s="59" t="s">
         <v>122</v>
@@ -14436,10 +14880,10 @@
     </row>
     <row r="27" spans="1:8" ht="17" customHeight="1">
       <c r="A27" s="58"/>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="72" t="s">
         <v>124</v>
       </c>
       <c r="D27" s="59" t="s">
@@ -14452,8 +14896,8 @@
     </row>
     <row r="28" spans="1:8" ht="17" customHeight="1">
       <c r="A28" s="58"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="59"/>
       <c r="E28" s="60" t="s">
         <v>127</v>
@@ -14462,8 +14906,8 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="58"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="59"/>
       <c r="E29" s="60" t="s">
         <v>187</v>
@@ -14472,8 +14916,8 @@
     </row>
     <row r="30" spans="1:8" ht="17" customHeight="1">
       <c r="A30" s="58"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="59"/>
       <c r="E30" s="59" t="s">
         <v>128</v>
@@ -14482,8 +14926,8 @@
     </row>
     <row r="31" spans="1:8" ht="17" customHeight="1">
       <c r="A31" s="58"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="59"/>
       <c r="F31" s="50"/>
       <c r="H31" s="59" t="s">
@@ -14491,8 +14935,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" customHeight="1">
-      <c r="A32" s="69"/>
-      <c r="B32" s="68" t="s">
+      <c r="A32" s="74"/>
+      <c r="B32" s="72" t="s">
         <v>130</v>
       </c>
       <c r="C32" s="59" t="s">
@@ -14501,56 +14945,56 @@
       <c r="D32" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="72" t="s">
         <v>118</v>
       </c>
       <c r="F32" s="50"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="69"/>
-      <c r="B33" s="68"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="59" t="s">
         <v>132</v>
       </c>
       <c r="D33" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="68"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="17" customHeight="1">
-      <c r="A34" s="69"/>
-      <c r="B34" s="68"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="59" t="s">
         <v>133</v>
       </c>
       <c r="D34" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="68"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:8" ht="17" customHeight="1">
-      <c r="A35" s="69"/>
-      <c r="B35" s="68"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="59"/>
-      <c r="E35" s="68"/>
+      <c r="E35" s="72"/>
       <c r="F35" s="50"/>
       <c r="G35" s="59" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" customHeight="1">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="68" t="s">
+      <c r="E36" s="72" t="s">
         <v>118</v>
       </c>
       <c r="F36" s="50"/>
@@ -14559,34 +15003,34 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" customHeight="1">
-      <c r="A37" s="69"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="E37" s="68"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="E37" s="72"/>
       <c r="F37" s="50"/>
       <c r="G37" s="59" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" customHeight="1">
-      <c r="A38" s="69"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="E38" s="68"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="50"/>
       <c r="G38" s="59" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" customHeight="1">
-      <c r="A39" s="69"/>
-      <c r="B39" s="68" t="s">
+      <c r="A39" s="74"/>
+      <c r="B39" s="72" t="s">
         <v>144</v>
       </c>
       <c r="C39" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="72" t="s">
         <v>182</v>
       </c>
       <c r="E39" s="59" t="s">
@@ -14595,32 +15039,32 @@
       <c r="F39" s="50"/>
     </row>
     <row r="40" spans="1:8" ht="17" customHeight="1">
-      <c r="A40" s="69"/>
-      <c r="B40" s="68"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="68"/>
+      <c r="D40" s="72"/>
       <c r="F40" s="50"/>
       <c r="H40" s="59" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" customHeight="1">
-      <c r="A41" s="69"/>
-      <c r="B41" s="68"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="59"/>
-      <c r="D41" s="68"/>
+      <c r="D41" s="72"/>
       <c r="F41" s="50"/>
       <c r="H41" s="59" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" customHeight="1">
-      <c r="A42" s="69"/>
-      <c r="B42" s="68"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="59"/>
-      <c r="D42" s="68"/>
+      <c r="D42" s="72"/>
       <c r="F42" s="50"/>
       <c r="H42" s="59" t="s">
         <v>183</v>
@@ -14657,12 +15101,12 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" customHeight="1">
-      <c r="A45" s="69"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68" t="s">
+      <c r="A45" s="74"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="72" t="s">
         <v>118</v>
       </c>
       <c r="F45" s="50"/>
@@ -14671,10 +15115,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="17" customHeight="1">
-      <c r="A46" s="69"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
       <c r="F46" s="50"/>
       <c r="H46" s="59" t="s">
         <v>156</v>
@@ -14698,10 +15142,10 @@
       <c r="A48" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="68" t="s">
+      <c r="C48" s="72" t="s">
         <v>163</v>
       </c>
       <c r="D48" s="59" t="s">
@@ -14714,8 +15158,8 @@
     </row>
     <row r="49" spans="1:8" ht="17" customHeight="1">
       <c r="A49" s="61"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
       <c r="D49" s="59" t="s">
         <v>165</v>
       </c>
@@ -14724,8 +15168,8 @@
     </row>
     <row r="50" spans="1:8" ht="17" customHeight="1">
       <c r="A50" s="61"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="59" t="s">
         <v>166</v>
       </c>
@@ -14748,10 +15192,10 @@
     </row>
     <row r="52" spans="1:8" ht="17" customHeight="1">
       <c r="A52" s="61"/>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="68" t="s">
+      <c r="C52" s="72" t="s">
         <v>158</v>
       </c>
       <c r="D52" s="59" t="s">
@@ -14764,8 +15208,8 @@
     </row>
     <row r="53" spans="1:8" ht="17" customHeight="1">
       <c r="A53" s="61"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
       <c r="E53" s="59"/>
       <c r="F53" s="50"/>
       <c r="G53" s="59" t="s">
@@ -14774,18 +15218,17 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:C38"/>
@@ -14797,17 +15240,18 @@
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E21:E23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14824,8 +15268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -14833,7 +15277,7 @@
     <col min="1" max="1" width="10" style="40" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="40" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="40" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="40" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" style="40" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="40"/>
@@ -14883,19 +15327,19 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="69" t="s">
         <v>222</v>
       </c>
       <c r="F6" s="40" t="s">
@@ -14911,40 +15355,38 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="34">
+    <row r="8" spans="1:9" ht="51">
       <c r="A8" s="40">
         <v>6.13</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="46" t="s">
+        <v>245</v>
+      </c>
       <c r="E8" s="46" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="51">
+    <row r="9" spans="1:9">
       <c r="A9" s="40">
         <v>6.14</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="D9" s="46" t="s">
-        <v>242</v>
+      <c r="B9" s="40" t="s">
+        <v>233</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="34">
+    <row r="10" spans="1:9">
       <c r="A10" s="40">
         <v>6.15</v>
       </c>
@@ -14953,7 +15395,7 @@
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>239</v>
@@ -14971,14 +15413,14 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="72">
+      <c r="A12" s="67">
         <v>6.17</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="40">

--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="0" windowWidth="19940" windowHeight="13980" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1140" yWindow="300" windowWidth="19940" windowHeight="13980" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="老计划" sheetId="1" r:id="rId1"/>
@@ -981,11 +981,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task3/5讲解;
-TPO1-Task3;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1032,25 +1027,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Task4/6讲解</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>Task4/6题型总结；
 TPO1-Task5、4、6</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task3/5题型总结
+TPO1-Task3;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1273,7 +1256,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5972">
+  <cellStyleXfs count="6112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3036,6 +3019,146 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7452,7 +7575,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5972">
+  <cellStyles count="6112">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -10438,6 +10561,76 @@
     <cellStyle name="超链接" xfId="5966" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5968" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5970" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5972" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5974" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5976" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5978" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5980" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5982" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5984" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5986" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5988" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5990" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5992" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5994" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5996" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5998" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6000" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6002" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6004" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6006" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6008" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6010" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6012" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6014" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6016" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6018" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6020" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6022" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6024" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6026" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6028" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6030" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6032" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6034" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6036" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6038" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6040" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6042" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6044" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6046" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6048" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6050" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6052" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6054" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6056" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6058" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6060" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6062" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6064" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6066" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6068" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6070" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6072" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6074" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6076" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6078" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6080" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6082" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6084" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6086" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6088" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6090" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6092" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6094" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6096" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6098" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6110" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -13422,6 +13615,76 @@
     <cellStyle name="访问过的超链接" xfId="5967" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5969" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5971" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5973" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5975" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5977" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5979" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5981" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5983" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5985" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5987" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5989" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5991" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5993" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5995" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5997" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5999" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6001" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6003" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6005" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6007" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6009" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6011" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6013" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6015" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6017" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6019" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6021" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6023" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6025" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6027" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6029" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6031" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6033" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6035" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6037" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6039" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6041" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6043" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6045" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6047" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6049" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6051" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6053" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6055" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6057" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6059" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6061" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6063" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6065" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6067" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6069" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6071" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6073" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6075" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6077" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6079" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6081" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6083" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6085" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6087" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6089" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6091" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6093" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6095" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6097" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6099" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6111" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -15269,7 +15532,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -15355,50 +15618,41 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="43" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="51">
-      <c r="A8" s="40">
+    <row r="8" spans="1:9">
+      <c r="A8" s="67">
         <v>6.13</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>237</v>
-      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="40">
+      <c r="A9" s="67">
         <v>6.14</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>236</v>
-      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="51">
       <c r="A10" s="40">
         <v>6.15</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46" t="s">
-        <v>243</v>
+      <c r="D10" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>245</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -15406,10 +15660,13 @@
         <v>6.16</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>243</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -15426,10 +15683,26 @@
       <c r="A13" s="40">
         <v>6.18</v>
       </c>
+      <c r="C13" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="40">
         <v>6.19</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:9">

--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="300" windowWidth="19940" windowHeight="13980" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="900" yWindow="0" windowWidth="27140" windowHeight="13980" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="老计划" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="254">
   <si>
     <t>Week1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -869,30 +869,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>按话题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>口语（非独立）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作文（非独立）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO顺序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO顺序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>口语/作文（独立）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阅读</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -945,18 +921,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TPO2-1，3-2，4-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO5-3、2-3、3-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO10-5、1-3、4-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1章：做题+改错</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -978,6 +942,27 @@
   </si>
   <si>
     <t>6.2o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task3/5题型总结
+TPO1-Task3;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.18作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.19口语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO2-1，3-2，4-3，5-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO10-5、1-3、4-5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -993,6 +978,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题
+TPO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题
+TPO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1000,20 +1007,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>独立口语3篇（topic7）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Topic7-表达复习
-独立作文:2篇(topic7+TPO1)-复习
+      <t>独立作文:2篇(topic7+TPO1)-复习
 Task1: TPO1复习+</t>
     </r>
     <r>
@@ -1027,13 +1021,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task4/6题型总结；
-TPO1-Task5、4、6</t>
+    <t>Task2--topic6
+Task1--TPO3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task3/5题型总结
-TPO1-Task3;</t>
+    <t>6.16听力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.17阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复习Topic7-表达复习
+Task1/2-topic7(复习)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Task4/6题型总结；
+TPO1-Task5、4、6。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.15口语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO2-3、3-1、4-2、5-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次任务（1整天）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立：2篇+复习对应topic
+非独立：一个TPO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立：1篇（话题）+复习对应topic
+非独立：1个TPO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1256,7 +1299,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6112">
+  <cellStyleXfs count="6416">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3019,6 +3062,310 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7575,7 +7922,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6112">
+  <cellStyles count="6416">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -10631,6 +10978,158 @@
     <cellStyle name="超链接" xfId="6106" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6108" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6414" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -13685,6 +14184,158 @@
     <cellStyle name="访问过的超链接" xfId="6107" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6109" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6415" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -14774,7 +15425,7 @@
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -14792,11 +15443,11 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="D1" s="71" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E1" s="71"/>
       <c r="G1" s="71" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H1" s="71"/>
     </row>
@@ -14838,7 +15489,7 @@
         <v>86</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F3" s="50"/>
     </row>
@@ -14923,7 +15574,7 @@
         <v>95</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>96</v>
@@ -14935,7 +15586,7 @@
       <c r="B11" s="72"/>
       <c r="C11" s="72"/>
       <c r="D11" s="53" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>97</v>
@@ -14947,7 +15598,7 @@
       <c r="B12" s="72"/>
       <c r="C12" s="72"/>
       <c r="D12" s="57" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E12" s="57"/>
       <c r="F12" s="50"/>
@@ -15086,7 +15737,7 @@
       <c r="B22" s="72"/>
       <c r="C22" s="72"/>
       <c r="D22" s="63" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E22" s="73"/>
       <c r="F22" s="50"/>
@@ -15101,7 +15752,7 @@
       <c r="E23" s="73"/>
       <c r="F23" s="50"/>
       <c r="G23" s="63" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H23" s="64"/>
     </row>
@@ -15529,111 +16180,114 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" style="40" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="21" style="40" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="40" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="40" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="40" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" style="40" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="40"/>
     <col min="8" max="8" width="15.85546875" style="40" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="40"/>
+    <col min="9" max="9" width="13" style="40" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="40" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="H1" s="66" t="s">
+    <row r="1" spans="1:10">
+      <c r="J1" s="40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="H2" s="66" t="s">
         <v>210</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="H2" s="66" t="s">
-        <v>211</v>
       </c>
       <c r="I2" s="40" t="s">
         <v>213</v>
       </c>
+      <c r="J2" s="40" t="s">
+        <v>242</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="H3" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="I3" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34">
+      <c r="H4" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34">
+      <c r="H5" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="I6" s="47"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="68" t="s">
         <v>214</v>
       </c>
+      <c r="C7" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>224</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="H4" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>217</v>
+    <row r="8" spans="1:10" ht="34">
+      <c r="A8" s="40">
+        <v>6.12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="43" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="H5" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="34">
-      <c r="A7" s="40">
-        <v>6.12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="43" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="67">
+    <row r="9" spans="1:10">
+      <c r="A9" s="67">
         <v>6.13</v>
-      </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="67">
-        <v>6.14</v>
       </c>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -15641,77 +16295,83 @@
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
     </row>
-    <row r="10" spans="1:9" ht="51">
-      <c r="A10" s="40">
-        <v>6.15</v>
-      </c>
-      <c r="D10" s="46" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="67">
+        <v>6.14</v>
+      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+    </row>
+    <row r="11" spans="1:10" ht="68">
+      <c r="A11" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E11" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="34">
+      <c r="A13" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="D13" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="F10" s="40" t="s">
-        <v>237</v>
+      <c r="E13" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="40">
-        <v>6.16</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="F11" s="40" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="42" t="s">
         <v>236</v>
       </c>
+      <c r="F14" s="40" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="67">
-        <v>6.17</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+    <row r="15" spans="1:10">
+      <c r="A15" s="40" t="s">
+        <v>235</v>
+      </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="40">
-        <v>6.18</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>239</v>
+    <row r="16" spans="1:10">
+      <c r="A16" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="40">
-        <v>6.19</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="40" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="40">
+    <row r="17" spans="1:1">
+      <c r="A17" s="40">
         <v>6.21</v>
       </c>
     </row>

--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="255">
   <si>
     <t>Week1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1026,14 +1026,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6.16听力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.17阅读</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1077,6 +1069,18 @@
   <si>
     <t>独立：1篇（话题）+复习对应topic
 非独立：1个TPO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.17作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.16听力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1228,7 +1232,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1289,6 +1293,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1299,7 +1309,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6416">
+  <cellStyleXfs count="6470">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -7718,8 +7728,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7921,8 +7985,11 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6416">
+  <cellStyles count="6470">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -11130,6 +11197,33 @@
     <cellStyle name="超链接" xfId="6410" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6412" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6468" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -14336,6 +14430,33 @@
     <cellStyle name="访问过的超链接" xfId="6411" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6413" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6469" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -16180,10 +16301,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -16203,7 +16324,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="J1" s="40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -16236,7 +16357,7 @@
         <v>240</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34">
@@ -16247,7 +16368,7 @@
         <v>241</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16307,21 +16428,21 @@
     </row>
     <row r="11" spans="1:10" ht="68">
       <c r="A11" s="40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="46" t="s">
         <v>244</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="40" t="s">
-        <v>246</v>
+      <c r="A12" s="75" t="s">
+        <v>254</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>237</v>
@@ -16332,8 +16453,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="34">
-      <c r="A13" s="42" t="s">
-        <v>247</v>
+      <c r="A13" s="75" t="s">
+        <v>252</v>
       </c>
       <c r="B13" s="42"/>
       <c r="D13" s="46" t="s">
@@ -16347,7 +16468,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="75" t="s">
         <v>234</v>
       </c>
       <c r="C14" s="42" t="s">
@@ -16358,7 +16479,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="75" t="s">
         <v>235</v>
       </c>
     </row>
@@ -16367,12 +16488,82 @@
         <v>232</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="40">
         <v>6.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="40">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="40">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="75">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="75">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="75">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="75">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="40">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="42">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="42">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="75">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="75">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="75">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="75">
+        <v>7.05</v>
       </c>
     </row>
   </sheetData>

--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="0" windowWidth="27140" windowHeight="13980" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1660" yWindow="0" windowWidth="26820" windowHeight="15600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="老计划" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="256">
   <si>
     <t>Week1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -950,31 +950,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6.18作文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6.19口语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO2-1，3-2，4-3，5-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO10-5、1-3、4-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Topic6-表达复习</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1000,61 +976,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>独立作文:2篇(topic7+TPO1)-复习
-Task1: TPO1复习+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TPO2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task2--topic6
-Task1--TPO3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复习Topic7-表达复习
-Task1/2-topic7(复习)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-Task4/6题型总结；
-TPO1-Task5、4、6。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6.15口语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO2-3、3-1、4-2、5-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1080,7 +1002,49 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Task2--Topic6(Topic6表达复习)
+Task1--TPO3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO2-3、3-1、4-2、5-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO10-5、1-3、4-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>6.16听力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO2-1，3-2，4-3，5-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.18阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task1/2-- Topic6
+Task3/4/5/6--TPO2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习
+Task2: topic7+TPO1；
+Task1: TPO1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习 Task1/2-topic7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习Topic7-表达
+Task4/6题型总结；
+TPO1-Task5、4、6。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1091,7 +1055,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1221,13 +1185,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1309,7 +1267,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6470">
+  <cellStyleXfs count="6694">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -7782,8 +7740,232 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7970,26 +8152,32 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6470">
+  <cellStyles count="6694">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -11224,6 +11412,118 @@
     <cellStyle name="超链接" xfId="6464" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6466" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6692" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -14457,6 +14757,118 @@
     <cellStyle name="访问过的超链接" xfId="6465" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6467" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6693" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -15039,7 +15451,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="70">
+      <c r="A19" s="71">
         <v>4.1900000000000004</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -15053,7 +15465,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="70"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="25" t="s">
         <v>40</v>
       </c>
@@ -15061,7 +15473,7 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="70"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
@@ -15073,7 +15485,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="70"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="19" t="s">
         <v>41</v>
       </c>
@@ -15097,7 +15509,7 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="70">
+      <c r="A25" s="71">
         <v>4.24</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -15106,7 +15518,7 @@
       <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="70"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="18" t="s">
         <v>46</v>
       </c>
@@ -15115,14 +15527,14 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="70"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="70"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="15" t="s">
         <v>47</v>
       </c>
@@ -15546,8 +15958,8 @@
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -15555,7 +15967,7 @@
     <col min="1" max="2" width="10.7109375" style="48"/>
     <col min="3" max="3" width="13.85546875" style="48" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="30" style="48" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="48" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" style="48" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" style="48" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" style="48" customWidth="1"/>
@@ -15563,14 +15975,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="74" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="G1" s="71" t="s">
+      <c r="E1" s="74"/>
+      <c r="G1" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="71"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="20">
       <c r="A2" s="51" t="s">
@@ -15784,7 +16196,7 @@
       <c r="B17" s="72"/>
       <c r="C17" s="72"/>
       <c r="D17" s="64"/>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="57" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="50"/>
@@ -15846,7 +16258,7 @@
       <c r="D21" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="75" t="s">
         <v>118</v>
       </c>
       <c r="F21" s="50"/>
@@ -15860,7 +16272,7 @@
       <c r="D22" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="E22" s="73"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="50"/>
       <c r="G22" s="64"/>
       <c r="H22" s="64"/>
@@ -15870,7 +16282,7 @@
       <c r="B23" s="72"/>
       <c r="C23" s="72"/>
       <c r="D23" s="64"/>
-      <c r="E23" s="73"/>
+      <c r="E23" s="75"/>
       <c r="F23" s="50"/>
       <c r="G23" s="63" t="s">
         <v>222</v>
@@ -15970,7 +16382,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" customHeight="1">
-      <c r="A32" s="74"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="72" t="s">
         <v>130</v>
       </c>
@@ -15986,7 +16398,7 @@
       <c r="F32" s="50"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="74"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="72"/>
       <c r="C33" s="59" t="s">
         <v>132</v>
@@ -15998,7 +16410,7 @@
       <c r="F33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="17" customHeight="1">
-      <c r="A34" s="74"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="72"/>
       <c r="C34" s="59" t="s">
         <v>133</v>
@@ -16010,7 +16422,7 @@
       <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:8" ht="17" customHeight="1">
-      <c r="A35" s="74"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="72"/>
       <c r="C35" s="59"/>
       <c r="E35" s="72"/>
@@ -16020,7 +16432,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" customHeight="1">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="73" t="s">
         <v>138</v>
       </c>
       <c r="B36" s="72" t="s">
@@ -16038,7 +16450,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" customHeight="1">
-      <c r="A37" s="74"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="72"/>
       <c r="C37" s="72"/>
       <c r="E37" s="72"/>
@@ -16048,7 +16460,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" customHeight="1">
-      <c r="A38" s="74"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="72"/>
       <c r="C38" s="72"/>
       <c r="E38" s="72"/>
@@ -16058,7 +16470,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" customHeight="1">
-      <c r="A39" s="74"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="72" t="s">
         <v>144</v>
       </c>
@@ -16074,7 +16486,7 @@
       <c r="F39" s="50"/>
     </row>
     <row r="40" spans="1:8" ht="17" customHeight="1">
-      <c r="A40" s="74"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="72"/>
       <c r="C40" s="59" t="s">
         <v>146</v>
@@ -16086,7 +16498,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" customHeight="1">
-      <c r="A41" s="74"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="72"/>
       <c r="C41" s="59"/>
       <c r="D41" s="72"/>
@@ -16096,7 +16508,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" customHeight="1">
-      <c r="A42" s="74"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="72"/>
       <c r="C42" s="59"/>
       <c r="D42" s="72"/>
@@ -16136,7 +16548,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" customHeight="1">
-      <c r="A45" s="74"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="72"/>
       <c r="C45" s="72" t="s">
         <v>154</v>
@@ -16150,7 +16562,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="17" customHeight="1">
-      <c r="A46" s="74"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="72"/>
       <c r="C46" s="72"/>
       <c r="D46" s="72"/>
@@ -16253,17 +16665,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:C38"/>
@@ -16275,18 +16688,17 @@
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16303,28 +16715,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" style="40" customWidth="1"/>
     <col min="2" max="2" width="21" style="40" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="40" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="40" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="40" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" style="40" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="40"/>
-    <col min="8" max="8" width="15.85546875" style="40" customWidth="1"/>
-    <col min="9" max="9" width="13" style="40" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="8" style="40" customWidth="1"/>
     <col min="10" max="10" width="27.7109375" style="40" customWidth="1"/>
     <col min="11" max="16384" width="10.7109375" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="J1" s="40" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -16335,7 +16747,7 @@
         <v>213</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -16346,7 +16758,7 @@
         <v>213</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34">
@@ -16354,21 +16766,21 @@
         <v>216</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34">
       <c r="H5" s="40" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I5" s="47" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -16426,61 +16838,65 @@
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
     </row>
-    <row r="11" spans="1:10" ht="68">
+    <row r="11" spans="1:10" ht="51">
       <c r="A11" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="75" t="s">
+    <row r="12" spans="1:10" ht="51">
+      <c r="A12" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="46"/>
       <c r="F12" s="40" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="34">
-      <c r="A13" s="75" t="s">
-        <v>252</v>
+      <c r="A13" s="70" t="s">
+        <v>244</v>
       </c>
       <c r="B13" s="42"/>
       <c r="D13" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>238</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="E13" s="46"/>
       <c r="F13" s="40" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>236</v>
-      </c>
+      <c r="A14" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="42"/>
       <c r="F14" s="40" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="75" t="s">
-        <v>235</v>
+    <row r="15" spans="1:10" ht="34">
+      <c r="A15" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -16488,7 +16904,7 @@
         <v>232</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -16507,22 +16923,22 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="75">
+      <c r="A20" s="70">
         <v>6.24</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="75">
+      <c r="A21" s="70">
         <v>6.25</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="75">
+      <c r="A22" s="70">
         <v>6.26</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="75">
+      <c r="A23" s="70">
         <v>6.27</v>
       </c>
     </row>
@@ -16538,7 +16954,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="42" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -16547,22 +16963,22 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="75">
+      <c r="A28" s="70">
         <v>7.02</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="75">
+      <c r="A29" s="70">
         <v>7.03</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="75">
+      <c r="A30" s="70">
         <v>7.04</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="75">
+      <c r="A31" s="70">
         <v>7.05</v>
       </c>
     </row>

--- a/###TOEFL_复习计划.xlsx
+++ b/###TOEFL_复习计划.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="0" windowWidth="26820" windowHeight="15600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="220" yWindow="0" windowWidth="18760" windowHeight="15600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="老计划" sheetId="1" r:id="rId1"/>
     <sheet name="新计划" sheetId="3" r:id="rId2"/>
     <sheet name="学科分类(听力+阅读)" sheetId="4" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="6" r:id="rId4"/>
+    <sheet name="6.12-7.12计划" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="266">
   <si>
     <t>Week1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -746,13 +746,300 @@
     </r>
   </si>
   <si>
+    <t>4.30-5.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景3：背表达
+总结：冠词的用法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1次课-5.4号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6（week4）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.13(week5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.20（week6）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景3：完成练习；
+场景2：复习表达+完成作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景3：复习表达+整理讲解
+场景2：复习表达+整理作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、听力（2/d）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、阅读(2/d)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、口语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景1：练习-复习
+            作文-完成
+场景2：练习-整理+复习</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学1-6：背单词/逐句精析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学1-3：背单词/逐句精析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学2-3：背单词/逐句精析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物学2-2：背单词/逐句精析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2次课-5.13号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景6：背+做</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景4：做</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>听力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按学科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-3苔原灌木，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2蜂鸟，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO 1-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO6-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3Jean Painlevé电影制作者，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-2 Loutherbourg布景师，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3高山林木线，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRE数学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO3-2、9-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-5磷循环，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1章：做题+改错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1章：单词+知识点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2章：做题+改错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2章：单词+知识点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.12-7.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task3/5题型总结
+TPO1-Task3;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.19口语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题
+TPO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>话题
+TPO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.15口语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次任务（1整天）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立：2篇+复习对应topic
+非独立：一个TPO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立：1篇（话题）+复习对应topic
+非独立：1个TPO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.17作文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO2-3、3-1、4-2、5-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO10-5、1-3、4-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.16听力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO2-1，3-2，4-3，5-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.18阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task1/2-- Topic6
+Task3/4/5/6--TPO2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习 Task1/2-topic7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习Topic7-表达
+Task4/6题型总结；
+TPO1-Task5、4、6。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习
+Task2: topic7+TPO1；
+Task1: TPO1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2o听力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO5-5、1-2、3-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>3-1建筑学</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF000000"/>
+        <color theme="3" tint="0.79998168889431442"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -760,291 +1047,81 @@
     </r>
   </si>
   <si>
-    <t>4.30-5.2</t>
+    <t>6.24听力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.3号</t>
+    <t>6.26阅读</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>场景3：背表达
-总结：冠词的用法</t>
+    <t>6.28听力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第二轮</t>
+    <t>6.3o阅读</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第1次课-5.4号</t>
+    <t>7.02听力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.6（week4）</t>
+    <t>7.04阅读</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.13(week5)</t>
+    <t>7.1o</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.20（week6）</t>
+    <t>7.06听力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>场景3：完成练习；
-场景2：复习表达+完成作文</t>
+    <t>7.08阅读</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>场景3：复习表达+整理讲解
-场景2：复习表达+整理作文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、作文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、听力（2/d）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、阅读(2/d)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、口语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景1：练习-复习
-            作文-完成
-场景2：练习-整理+复习</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>生物学1-6：背单词/逐句精析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生物学1-3：背单词/逐句精析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生物学2-3：背单词/逐句精析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生物学2-2：背单词/逐句精析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第2次课-5.13号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景6：背+做</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景4：做</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>听力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按学科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>听力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>口语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-3苔原灌木，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-2蜂鸟，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO 1-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO6-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-3Jean Painlevé电影制作者，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-2 Loutherbourg布景师，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3高山林木线，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRE数学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO3-2、9-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-5磷循环，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1章：做题+改错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1章：单词+知识点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2章：做题+改错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2章：单词+知识点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.12-7.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.2o</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task3/5题型总结
-TPO1-Task3;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.19口语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题
-TPO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>话题
-TPO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3篇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.15口语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次任务（1整天）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>独立：2篇+复习对应topic
-非独立：一个TPO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>独立：1篇（话题）+复习对应topic
-非独立：1个TPO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.17作文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3o</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task2--Topic6(Topic6表达复习)
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Task2--题型总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Topic6表达复习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Task2--Topic6对应作文1篇
 Task1--TPO3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO2-3、3-1、4-2、5-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO10-5、1-3、4-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.16听力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO2-1，3-2，4-3，5-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.18阅读</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task1/2-- Topic6
-Task3/4/5/6--TPO2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复习
-Task2: topic7+TPO1；
-Task1: TPO1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复习 Task1/2-topic7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复习Topic7-表达
-Task4/6题型总结；
-TPO1-Task5、4、6。</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1055,7 +1132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1189,8 +1266,34 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.79998168889431442"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="0.79998168889431442"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1257,6 +1360,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1267,7 +1376,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6694">
+  <cellStyleXfs count="7090">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -7964,8 +8073,404 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -8124,9 +8629,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8155,6 +8657,35 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8170,14 +8701,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6694">
+  <cellStyles count="7090">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -11524,6 +12049,204 @@
     <cellStyle name="超链接" xfId="6688" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6690" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6764" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6766" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6768" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6770" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6772" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6786" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6794" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6796" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6798" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6810" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6812" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6814" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6816" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6818" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6820" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6822" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6824" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6826" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6828" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6830" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6832" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6834" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6836" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6838" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6840" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6842" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6844" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6846" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6848" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6850" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6852" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6854" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6856" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6858" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6860" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6862" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6864" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6866" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6868" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6870" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6872" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6874" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6876" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6878" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6880" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6882" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6884" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6886" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6888" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6890" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6892" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6894" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6896" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6898" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6900" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6902" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6904" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6906" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6908" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6910" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6912" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6914" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6916" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6918" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6920" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6922" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6924" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6926" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6928" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6930" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6932" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6934" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6936" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6938" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6940" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6942" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6944" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6946" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6948" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6950" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6952" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6954" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6956" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6958" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6960" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6962" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6964" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6966" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6968" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6970" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6972" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6974" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6976" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6978" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6980" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6982" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6984" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6986" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6988" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6990" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6992" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6994" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6996" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6998" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7000" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7002" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7004" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7006" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7008" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7010" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7012" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7014" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7016" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7018" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7020" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7022" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7024" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7026" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7028" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7030" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7032" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7034" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7036" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7038" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7040" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7042" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7044" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7046" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7048" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7050" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7052" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7054" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7056" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7058" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7060" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7062" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7064" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7066" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7068" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7070" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7072" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7074" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7076" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7078" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7080" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7082" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7084" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7086" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7088" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
@@ -14869,6 +15592,204 @@
     <cellStyle name="访问过的超链接" xfId="6689" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6691" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6771" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6795" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6797" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6799" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6811" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6813" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6815" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6817" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6819" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6821" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6823" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6825" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6827" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6829" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6831" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6833" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6835" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6837" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6839" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6841" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6843" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6845" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6847" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6849" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6851" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6853" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6855" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6857" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6859" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6861" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6863" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6865" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6867" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6869" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6871" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6873" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6875" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6877" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6879" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6881" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6883" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6885" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6887" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6889" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6891" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6893" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6895" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6897" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6899" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6901" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6903" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6905" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6907" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6909" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6911" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6913" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6915" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6917" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6919" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6921" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6923" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6925" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6927" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6929" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6931" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6933" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6935" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6937" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6939" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6941" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6943" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6945" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6947" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6949" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6951" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6953" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6955" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6957" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6959" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6961" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6963" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6965" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6967" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6969" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6971" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6973" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6975" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6977" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6979" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6981" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6983" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6985" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6987" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6989" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6991" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6993" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6995" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6997" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6999" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7001" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7003" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7005" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7007" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7009" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7011" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7013" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7015" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7017" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7019" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7021" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7023" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7025" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7027" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7029" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7031" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7033" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7035" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7037" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7039" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7041" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7043" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7045" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7047" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7049" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7051" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7053" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7055" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7057" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7059" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7061" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7063" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7065" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7067" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7069" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7071" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7073" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7075" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7077" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7079" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7081" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7083" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7085" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7087" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7089" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2"/>
     <cellStyle name="普通 3" xfId="1759"/>
@@ -15451,7 +16372,7 @@
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="71">
+      <c r="A19" s="81">
         <v>4.1900000000000004</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -15465,7 +16386,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="71"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="25" t="s">
         <v>40</v>
       </c>
@@ -15473,7 +16394,7 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="71"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="21" t="s">
         <v>33</v>
       </c>
@@ -15485,7 +16406,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="71"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="19" t="s">
         <v>41</v>
       </c>
@@ -15509,7 +16430,7 @@
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="71">
+      <c r="A25" s="81">
         <v>4.24</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -15518,7 +16439,7 @@
       <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="71"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="18" t="s">
         <v>46</v>
       </c>
@@ -15527,14 +16448,14 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="71"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="71"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="15" t="s">
         <v>47</v>
       </c>
@@ -15544,15 +16465,15 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -15593,16 +16514,16 @@
     <row r="2" spans="1:6">
       <c r="A2" s="27"/>
       <c r="B2" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>200</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>201</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>50</v>
@@ -15789,14 +16710,14 @@
         <v>179</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
@@ -15806,12 +16727,12 @@
     </row>
     <row r="18" spans="1:6" ht="34">
       <c r="A18" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
       <c r="D18" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -15821,7 +16742,7 @@
         <v>5.4</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -15831,26 +16752,26 @@
         <v>5.5</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="D20" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="27"/>
@@ -15861,7 +16782,7 @@
         <v>5.8</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -15879,7 +16800,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -15897,7 +16818,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -15932,7 +16853,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="6:6">
@@ -15958,8 +16879,8 @@
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -15975,14 +16896,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="84"/>
+      <c r="G1" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="G1" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="74"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8" ht="20">
       <c r="A2" s="51" t="s">
@@ -16012,17 +16933,17 @@
       <c r="A3" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="82" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F3" s="50"/>
     </row>
@@ -16030,8 +16951,8 @@
       <c r="A4" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="53" t="s">
         <v>87</v>
       </c>
@@ -16044,8 +16965,8 @@
       <c r="A5" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="53" t="s">
         <v>88</v>
       </c>
@@ -16058,8 +16979,8 @@
       <c r="A6" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="53" t="s">
         <v>89</v>
       </c>
@@ -16070,8 +16991,8 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="54"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="53" t="s">
         <v>90</v>
       </c>
@@ -16080,8 +17001,8 @@
     </row>
     <row r="8" spans="1:8" ht="17" customHeight="1">
       <c r="A8" s="54"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="53" t="s">
         <v>91</v>
       </c>
@@ -16090,8 +17011,8 @@
     </row>
     <row r="9" spans="1:8" ht="17" customHeight="1">
       <c r="A9" s="54"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="53" t="s">
         <v>92</v>
       </c>
@@ -16100,14 +17021,14 @@
     </row>
     <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="54"/>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="82" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>96</v>
@@ -16116,10 +17037,10 @@
     </row>
     <row r="11" spans="1:8" ht="17" customHeight="1">
       <c r="A11" s="54"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>97</v>
@@ -16128,10 +17049,10 @@
     </row>
     <row r="12" spans="1:8" ht="17" customHeight="1">
       <c r="A12" s="54"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="57" t="s">
-        <v>226</v>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="53" t="s">
+        <v>225</v>
       </c>
       <c r="E12" s="57"/>
       <c r="F12" s="50"/>
@@ -16139,10 +17060,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="54"/>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="82" t="s">
         <v>99</v>
       </c>
       <c r="D13" s="57" t="s">
@@ -16155,8 +17076,8 @@
     </row>
     <row r="14" spans="1:8" ht="17" customHeight="1">
       <c r="A14" s="54"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="57" t="s">
         <v>101</v>
       </c>
@@ -16167,9 +17088,9 @@
     </row>
     <row r="15" spans="1:8" ht="17" customHeight="1">
       <c r="A15" s="54"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="63" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E15" s="57" t="s">
@@ -16179,69 +17100,69 @@
     </row>
     <row r="16" spans="1:8" ht="17" customHeight="1">
       <c r="A16" s="54"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="64"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="57" t="s">
         <v>110</v>
       </c>
       <c r="F16" s="50"/>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="64"/>
+      <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" ht="17" customHeight="1">
       <c r="A17" s="54"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="64"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="57" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="50"/>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="64"/>
+      <c r="H17" s="63"/>
     </row>
     <row r="18" spans="1:8" ht="17" customHeight="1">
       <c r="A18" s="54"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="50"/>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="63" t="s">
+      <c r="H18" s="57" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17" customHeight="1">
       <c r="A19" s="54"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="63" t="s">
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="64"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="50"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="63" t="s">
+      <c r="G19" s="63"/>
+      <c r="H19" s="57" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" customHeight="1">
       <c r="A20" s="54"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="50"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="63" t="s">
+      <c r="G20" s="63"/>
+      <c r="H20" s="57" t="s">
         <v>185</v>
       </c>
     </row>
@@ -16249,88 +17170,91 @@
       <c r="A21" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="85" t="s">
         <v>118</v>
       </c>
       <c r="F21" s="50"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="78"/>
     </row>
     <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="58"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="E22" s="75"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="85"/>
       <c r="F22" s="50"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="78"/>
     </row>
     <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="58"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="75"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="85"/>
       <c r="F23" s="50"/>
-      <c r="G23" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="H23" s="64"/>
+      <c r="G23" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="78"/>
     </row>
     <row r="24" spans="1:8" ht="17" customHeight="1">
       <c r="A24" s="58"/>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="82" t="s">
         <v>119</v>
       </c>
       <c r="D24" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="82" t="s">
         <v>118</v>
       </c>
       <c r="F24" s="50"/>
+      <c r="H24" s="78"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="58"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="E25" s="72"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="E25" s="82"/>
       <c r="F25" s="50"/>
       <c r="G25" s="59" t="s">
         <v>121</v>
       </c>
+      <c r="H25" s="78"/>
     </row>
     <row r="26" spans="1:8" ht="17" customHeight="1">
       <c r="A26" s="58"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="E26" s="72"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="E26" s="82"/>
       <c r="F26" s="50"/>
       <c r="G26" s="59" t="s">
         <v>122</v>
       </c>
+      <c r="H26" s="78"/>
     </row>
     <row r="27" spans="1:8" ht="17" customHeight="1">
       <c r="A27" s="58"/>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="82" t="s">
         <v>124</v>
       </c>
       <c r="D27" s="59" t="s">
@@ -16340,50 +17264,54 @@
         <v>126</v>
       </c>
       <c r="F27" s="50"/>
+      <c r="H27" s="78"/>
     </row>
     <row r="28" spans="1:8" ht="17" customHeight="1">
       <c r="A28" s="58"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="59"/>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="74" t="s">
         <v>127</v>
       </c>
       <c r="F28" s="50"/>
+      <c r="H28" s="78"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="58"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="59"/>
-      <c r="E29" s="60" t="s">
-        <v>187</v>
+      <c r="E29" s="74" t="s">
+        <v>255</v>
       </c>
       <c r="F29" s="50"/>
+      <c r="H29" s="78"/>
     </row>
     <row r="30" spans="1:8" ht="17" customHeight="1">
       <c r="A30" s="58"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="59"/>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="72" t="s">
         <v>128</v>
       </c>
       <c r="F30" s="50"/>
+      <c r="H30" s="78"/>
     </row>
     <row r="31" spans="1:8" ht="17" customHeight="1">
       <c r="A31" s="58"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="59"/>
       <c r="F31" s="50"/>
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="57" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" customHeight="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="72" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="82" t="s">
         <v>130</v>
       </c>
       <c r="C32" s="59" t="s">
@@ -16392,56 +17320,56 @@
       <c r="D32" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="82" t="s">
         <v>118</v>
       </c>
       <c r="F32" s="50"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="73"/>
-      <c r="B33" s="72"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="59" t="s">
         <v>132</v>
       </c>
       <c r="D33" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="72"/>
+      <c r="E33" s="82"/>
       <c r="F33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="17" customHeight="1">
-      <c r="A34" s="73"/>
-      <c r="B34" s="72"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="59" t="s">
         <v>133</v>
       </c>
       <c r="D34" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="72"/>
+      <c r="E34" s="82"/>
       <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:8" ht="17" customHeight="1">
-      <c r="A35" s="73"/>
-      <c r="B35" s="72"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="59"/>
-      <c r="E35" s="72"/>
+      <c r="E35" s="82"/>
       <c r="F35" s="50"/>
       <c r="G35" s="59" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" customHeight="1">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="82" t="s">
         <v>118</v>
       </c>
       <c r="F36" s="50"/>
@@ -16450,68 +17378,68 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" customHeight="1">
-      <c r="A37" s="73"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="E37" s="72"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="E37" s="82"/>
       <c r="F37" s="50"/>
       <c r="G37" s="59" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" customHeight="1">
-      <c r="A38" s="73"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="E38" s="72"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="E38" s="82"/>
       <c r="F38" s="50"/>
       <c r="G38" s="59" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" customHeight="1">
-      <c r="A39" s="73"/>
-      <c r="B39" s="72" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="82" t="s">
         <v>144</v>
       </c>
       <c r="C39" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="72" t="s">
         <v>184</v>
       </c>
       <c r="F39" s="50"/>
     </row>
     <row r="40" spans="1:8" ht="17" customHeight="1">
-      <c r="A40" s="73"/>
-      <c r="B40" s="72"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="72"/>
+      <c r="D40" s="82"/>
       <c r="F40" s="50"/>
       <c r="H40" s="59" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" customHeight="1">
-      <c r="A41" s="73"/>
-      <c r="B41" s="72"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="59"/>
-      <c r="D41" s="72"/>
+      <c r="D41" s="82"/>
       <c r="F41" s="50"/>
       <c r="H41" s="59" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" customHeight="1">
-      <c r="A42" s="73"/>
-      <c r="B42" s="72"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="59"/>
-      <c r="D42" s="72"/>
+      <c r="D42" s="82"/>
       <c r="F42" s="50"/>
       <c r="H42" s="59" t="s">
         <v>183</v>
@@ -16548,12 +17476,12 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" customHeight="1">
-      <c r="A45" s="73"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72" t="s">
+      <c r="A45" s="83"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="D45" s="72" t="s">
+      <c r="D45" s="82" t="s">
         <v>118</v>
       </c>
       <c r="F45" s="50"/>
@@ -16562,17 +17490,17 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="17" customHeight="1">
-      <c r="A46" s="73"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
       <c r="F46" s="50"/>
-      <c r="H46" s="59" t="s">
+      <c r="H46" s="57" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" customHeight="1">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="60" t="s">
         <v>157</v>
       </c>
       <c r="B47" s="59"/>
@@ -16581,82 +17509,82 @@
       </c>
       <c r="D47" s="59"/>
       <c r="F47" s="50"/>
-      <c r="H47" s="60" t="s">
+      <c r="H47" s="79" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" customHeight="1">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="82" t="s">
         <v>163</v>
       </c>
       <c r="D48" s="59" t="s">
         <v>164</v>
       </c>
       <c r="F48" s="50"/>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="57" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" customHeight="1">
-      <c r="A49" s="61"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
       <c r="D49" s="59" t="s">
         <v>165</v>
       </c>
       <c r="F49" s="50"/>
-      <c r="H49" s="59"/>
+      <c r="H49" s="57"/>
     </row>
     <row r="50" spans="1:8" ht="17" customHeight="1">
-      <c r="A50" s="61"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
       <c r="D50" s="59" t="s">
         <v>166</v>
       </c>
       <c r="F50" s="50"/>
-      <c r="H50" s="59"/>
+      <c r="H50" s="57"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="61"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="59"/>
       <c r="C51" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="D51" s="62" t="s">
+      <c r="D51" s="61" t="s">
         <v>118</v>
       </c>
       <c r="F51" s="50"/>
-      <c r="H51" s="59" t="s">
+      <c r="H51" s="57" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17" customHeight="1">
-      <c r="A52" s="61"/>
-      <c r="B52" s="72" t="s">
+      <c r="A52" s="60"/>
+      <c r="B52" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="72" t="s">
+      <c r="C52" s="82" t="s">
         <v>158</v>
       </c>
       <c r="D52" s="59" t="s">
         <v>169</v>
       </c>
       <c r="F52" s="50"/>
-      <c r="H52" s="59" t="s">
+      <c r="H52" s="57" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" customHeight="1">
-      <c r="A53" s="61"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="82"/>
       <c r="E53" s="59"/>
       <c r="F53" s="50"/>
       <c r="G53" s="59" t="s">
@@ -16713,10 +17641,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -16736,251 +17664,296 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="J1" s="40" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="H2" s="66" t="s">
-        <v>210</v>
+      <c r="H2" s="65" t="s">
+        <v>209</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="H3" s="66" t="s">
-        <v>211</v>
+      <c r="H3" s="65" t="s">
+        <v>210</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34">
-      <c r="H4" s="66" t="s">
-        <v>216</v>
+      <c r="H4" s="65" t="s">
+        <v>215</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34">
       <c r="H5" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="47" t="s">
-        <v>237</v>
-      </c>
       <c r="J5" s="46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="D7" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>216</v>
-      </c>
       <c r="F7" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34">
-      <c r="A8" s="40">
+      <c r="A8" s="76">
         <v>6.12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="43" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="67">
+      <c r="A9" s="8">
         <v>6.13</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="67">
+      <c r="A10" s="8">
         <v>6.14</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" spans="1:10" ht="51">
-      <c r="A11" s="40" t="s">
-        <v>240</v>
+      <c r="A11" s="76" t="s">
+        <v>238</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="51">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>254</v>
-      </c>
       <c r="F12" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="34">
-      <c r="A13" s="70" t="s">
-        <v>244</v>
+    <row r="13" spans="1:10" ht="68">
+      <c r="A13" s="77" t="s">
+        <v>242</v>
       </c>
       <c r="B13" s="42"/>
       <c r="D13" s="46" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>250</v>
+      <c r="A14" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>246</v>
       </c>
       <c r="C14" s="42"/>
       <c r="F14" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="34">
-      <c r="A15" s="70" t="s">
-        <v>234</v>
+      <c r="A15" s="77" t="s">
+        <v>232</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>247</v>
+      <c r="A16" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="40">
+    <row r="17" spans="1:3">
+      <c r="A17" s="76">
         <v>6.21</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="40">
-        <v>6.22</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="40">
+    <row r="19" spans="1:3">
+      <c r="A19" s="76">
         <v>6.23</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="70">
-        <v>6.24</v>
-      </c>
+    <row r="20" spans="1:3">
+      <c r="A20" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="75"/>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="70">
+    <row r="21" spans="1:3">
+      <c r="A21" s="77">
         <v>6.25</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="70">
-        <v>6.26</v>
-      </c>
+    <row r="22" spans="1:3">
+      <c r="A22" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" s="75"/>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="70">
+    <row r="23" spans="1:3">
+      <c r="A23" s="77">
         <v>6.27</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="40">
-        <v>6.28</v>
-      </c>
+    <row r="24" spans="1:3">
+      <c r="A24" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="75"/>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="42">
+    <row r="25" spans="1:3">
+      <c r="A25" s="15">
         <v>6.29</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="42" t="s">
-        <v>245</v>
-      </c>
+    <row r="26" spans="1:3">
+      <c r="A26" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="75"/>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="42">
+    <row r="27" spans="1:3">
+      <c r="A27" s="15">
         <v>7.01</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="70">
-        <v>7.02</v>
-      </c>
+    <row r="28" spans="1:3">
+      <c r="A28" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="75"/>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="70">
+    <row r="29" spans="1:3">
+      <c r="A29" s="77">
         <v>7.03</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="70">
-        <v>7.04</v>
-      </c>
+    <row r="30" spans="1:3">
+      <c r="A30" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="75"/>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="70">
+    <row r="31" spans="1:3">
+      <c r="A31" s="77">
         <v>7.05</v>
       </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="75"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="76">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" s="75"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="76">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="77">
+        <v>7.12</v>
+      </c>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
